--- a/MannLibrary.xlsx
+++ b/MannLibrary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewburgos/Desktop/BEE 4750/BEE4750FinalProject-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B490F1A4-4E98-0743-B2FA-09DE1F40F7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AE5025-3440-6C4A-B8DA-B4F08BA23961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5490" uniqueCount="1474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5487" uniqueCount="1474">
   <si>
     <t>name</t>
   </si>
@@ -4483,6 +4483,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4492,12 +4495,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4512,8 +4521,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4855,14 +4866,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1099"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="16.83203125" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
     <col min="7" max="7" width="19.83203125" customWidth="1"/>
     <col min="8" max="8" width="15.1640625" customWidth="1"/>
     <col min="9" max="9" width="16.1640625" customWidth="1"/>
@@ -4913,9 +4924,8 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="str" cm="1">
-        <f t="array" ref="F2">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-02 00:00:00</v>
+      <c r="F2" s="1">
+        <v>45293</v>
       </c>
       <c r="G2" t="str" cm="1">
         <f t="array" ref="G2">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -4946,9 +4956,8 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="str" cm="1">
-        <f t="array" ref="F3">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-03 00:00:00</v>
+      <c r="F3" s="1">
+        <v>45294</v>
       </c>
       <c r="G3" t="str" cm="1">
         <f t="array" ref="G3">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -4979,9 +4988,8 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="str" cm="1">
-        <f t="array" ref="F4">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-04 00:00:00</v>
+      <c r="F4" s="1">
+        <v>45295</v>
       </c>
       <c r="G4" t="str" cm="1">
         <f t="array" ref="G4">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5012,9 +5020,8 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="str" cm="1">
-        <f t="array" ref="F5">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-05 00:00:00</v>
+      <c r="F5" s="1">
+        <v>45296</v>
       </c>
       <c r="G5" t="str" cm="1">
         <f t="array" ref="G5">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5045,9 +5052,8 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="str" cm="1">
-        <f t="array" ref="F6">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-06 00:00:00</v>
+      <c r="F6" s="1">
+        <v>45297</v>
       </c>
       <c r="G6" t="str" cm="1">
         <f t="array" ref="G6">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5078,9 +5084,8 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="str" cm="1">
-        <f t="array" ref="F7">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-07 00:00:00</v>
+      <c r="F7" s="1">
+        <v>45298</v>
       </c>
       <c r="G7" t="str" cm="1">
         <f t="array" ref="G7">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5111,9 +5116,8 @@
       <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" t="str" cm="1">
-        <f t="array" ref="F8">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-08 00:00:00</v>
+      <c r="F8" s="1">
+        <v>45299</v>
       </c>
       <c r="G8" t="str" cm="1">
         <f t="array" ref="G8">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5144,9 +5148,8 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" t="str" cm="1">
-        <f t="array" ref="F9">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-09 00:00:00</v>
+      <c r="F9" s="1">
+        <v>45300</v>
       </c>
       <c r="G9" t="str" cm="1">
         <f t="array" ref="G9">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5177,9 +5180,8 @@
       <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" t="str" cm="1">
-        <f t="array" ref="F10">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-10 00:00:00</v>
+      <c r="F10" s="1">
+        <v>45301</v>
       </c>
       <c r="G10" t="str" cm="1">
         <f t="array" ref="G10">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5210,9 +5212,8 @@
       <c r="E11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" t="str" cm="1">
-        <f t="array" ref="F11">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-11 00:00:00</v>
+      <c r="F11" s="1">
+        <v>45302</v>
       </c>
       <c r="G11" t="str" cm="1">
         <f t="array" ref="G11">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5243,9 +5244,8 @@
       <c r="E12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" t="str" cm="1">
-        <f t="array" ref="F12">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-12 00:00:00</v>
+      <c r="F12" s="1">
+        <v>45303</v>
       </c>
       <c r="G12" t="str" cm="1">
         <f t="array" ref="G12">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5276,9 +5276,8 @@
       <c r="E13" t="s">
         <v>15</v>
       </c>
-      <c r="F13" t="str" cm="1">
-        <f t="array" ref="F13">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-13 00:00:00</v>
+      <c r="F13" s="1">
+        <v>45304</v>
       </c>
       <c r="G13" t="str" cm="1">
         <f t="array" ref="G13">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5309,9 +5308,8 @@
       <c r="E14" t="s">
         <v>9</v>
       </c>
-      <c r="F14" t="str" cm="1">
-        <f t="array" ref="F14">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-14 00:00:00</v>
+      <c r="F14" s="1">
+        <v>45305</v>
       </c>
       <c r="G14" t="str" cm="1">
         <f t="array" ref="G14">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5342,9 +5340,8 @@
       <c r="E15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" t="str" cm="1">
-        <f t="array" ref="F15">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-15 00:00:00</v>
+      <c r="F15" s="1">
+        <v>45306</v>
       </c>
       <c r="G15" t="str" cm="1">
         <f t="array" ref="G15">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5375,9 +5372,8 @@
       <c r="E16" t="s">
         <v>15</v>
       </c>
-      <c r="F16" t="str" cm="1">
-        <f t="array" ref="F16">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-16 00:00:00</v>
+      <c r="F16" s="1">
+        <v>45307</v>
       </c>
       <c r="G16" t="str" cm="1">
         <f t="array" ref="G16">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5408,9 +5404,8 @@
       <c r="E17" t="s">
         <v>9</v>
       </c>
-      <c r="F17" t="str" cm="1">
-        <f t="array" ref="F17">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-17 00:00:00</v>
+      <c r="F17" s="1">
+        <v>45308</v>
       </c>
       <c r="G17" t="str" cm="1">
         <f t="array" ref="G17">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5441,9 +5436,8 @@
       <c r="E18" t="s">
         <v>12</v>
       </c>
-      <c r="F18" t="str" cm="1">
-        <f t="array" ref="F18">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-18 00:00:00</v>
+      <c r="F18" s="1">
+        <v>45309</v>
       </c>
       <c r="G18" t="str" cm="1">
         <f t="array" ref="G18">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5474,9 +5468,8 @@
       <c r="E19" t="s">
         <v>15</v>
       </c>
-      <c r="F19" t="str" cm="1">
-        <f t="array" ref="F19">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-19 00:00:00</v>
+      <c r="F19" s="1">
+        <v>45310</v>
       </c>
       <c r="G19" t="str" cm="1">
         <f t="array" ref="G19">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5507,9 +5500,8 @@
       <c r="E20" t="s">
         <v>9</v>
       </c>
-      <c r="F20" t="str" cm="1">
-        <f t="array" ref="F20">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-20 00:00:00</v>
+      <c r="F20" s="1">
+        <v>45311</v>
       </c>
       <c r="G20" t="str" cm="1">
         <f t="array" ref="G20">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5540,9 +5532,8 @@
       <c r="E21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" t="str" cm="1">
-        <f t="array" ref="F21">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-21 00:00:00</v>
+      <c r="F21" s="1">
+        <v>45312</v>
       </c>
       <c r="G21" t="str" cm="1">
         <f t="array" ref="G21">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5573,9 +5564,8 @@
       <c r="E22" t="s">
         <v>15</v>
       </c>
-      <c r="F22" t="str" cm="1">
-        <f t="array" ref="F22">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-22 00:00:00</v>
+      <c r="F22" s="1">
+        <v>45313</v>
       </c>
       <c r="G22" t="str" cm="1">
         <f t="array" ref="G22">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5606,9 +5596,8 @@
       <c r="E23" t="s">
         <v>9</v>
       </c>
-      <c r="F23" t="str" cm="1">
-        <f t="array" ref="F23">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-23 00:00:00</v>
+      <c r="F23" s="1">
+        <v>45314</v>
       </c>
       <c r="G23" t="str" cm="1">
         <f t="array" ref="G23">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5639,9 +5628,8 @@
       <c r="E24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" t="str" cm="1">
-        <f t="array" ref="F24">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-24 00:00:00</v>
+      <c r="F24" s="1">
+        <v>45315</v>
       </c>
       <c r="G24" t="str" cm="1">
         <f t="array" ref="G24">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5672,9 +5660,8 @@
       <c r="E25" t="s">
         <v>15</v>
       </c>
-      <c r="F25" t="str" cm="1">
-        <f t="array" ref="F25">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-25 00:00:00</v>
+      <c r="F25" s="1">
+        <v>45316</v>
       </c>
       <c r="G25" t="str" cm="1">
         <f t="array" ref="G25">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5705,9 +5692,8 @@
       <c r="E26" t="s">
         <v>9</v>
       </c>
-      <c r="F26" t="str" cm="1">
-        <f t="array" ref="F26">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-26 00:00:00</v>
+      <c r="F26" s="1">
+        <v>45317</v>
       </c>
       <c r="G26" t="str" cm="1">
         <f t="array" ref="G26">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5738,9 +5724,8 @@
       <c r="E27" t="s">
         <v>12</v>
       </c>
-      <c r="F27" t="str" cm="1">
-        <f t="array" ref="F27">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-27 00:00:00</v>
+      <c r="F27" s="1">
+        <v>45318</v>
       </c>
       <c r="G27" t="str" cm="1">
         <f t="array" ref="G27">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5771,9 +5756,8 @@
       <c r="E28" t="s">
         <v>15</v>
       </c>
-      <c r="F28" t="str" cm="1">
-        <f t="array" ref="F28">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-28 00:00:00</v>
+      <c r="F28" s="1">
+        <v>45319</v>
       </c>
       <c r="G28" t="str" cm="1">
         <f t="array" ref="G28">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5804,9 +5788,8 @@
       <c r="E29" t="s">
         <v>9</v>
       </c>
-      <c r="F29" t="str" cm="1">
-        <f t="array" ref="F29">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-29 00:00:00</v>
+      <c r="F29" s="1">
+        <v>45320</v>
       </c>
       <c r="G29" t="str" cm="1">
         <f t="array" ref="G29">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5837,9 +5820,8 @@
       <c r="E30" t="s">
         <v>12</v>
       </c>
-      <c r="F30" t="str" cm="1">
-        <f t="array" ref="F30">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-30 00:00:00</v>
+      <c r="F30" s="1">
+        <v>45321</v>
       </c>
       <c r="G30" t="str" cm="1">
         <f t="array" ref="G30">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5870,9 +5852,8 @@
       <c r="E31" t="s">
         <v>15</v>
       </c>
-      <c r="F31" t="str" cm="1">
-        <f t="array" ref="F31">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-01-31 00:00:00</v>
+      <c r="F31" s="1">
+        <v>45322</v>
       </c>
       <c r="G31" t="str" cm="1">
         <f t="array" ref="G31">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5903,9 +5884,8 @@
       <c r="E32" t="s">
         <v>9</v>
       </c>
-      <c r="F32" t="str" cm="1">
-        <f t="array" ref="F32">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-01 00:00:00</v>
+      <c r="F32" s="1">
+        <v>45323</v>
       </c>
       <c r="G32" t="str" cm="1">
         <f t="array" ref="G32">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5936,9 +5916,8 @@
       <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="F33" t="str" cm="1">
-        <f t="array" ref="F33">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-02 00:00:00</v>
+      <c r="F33" s="1">
+        <v>45324</v>
       </c>
       <c r="G33" t="str" cm="1">
         <f t="array" ref="G33">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -5969,9 +5948,8 @@
       <c r="E34" t="s">
         <v>15</v>
       </c>
-      <c r="F34" t="str" cm="1">
-        <f t="array" ref="F34">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-03 00:00:00</v>
+      <c r="F34" s="1">
+        <v>45325</v>
       </c>
       <c r="G34" t="str" cm="1">
         <f t="array" ref="G34">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6002,9 +5980,8 @@
       <c r="E35" t="s">
         <v>9</v>
       </c>
-      <c r="F35" t="str" cm="1">
-        <f t="array" ref="F35">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-04 00:00:00</v>
+      <c r="F35" s="1">
+        <v>45326</v>
       </c>
       <c r="G35" t="str" cm="1">
         <f t="array" ref="G35">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6035,9 +6012,8 @@
       <c r="E36" t="s">
         <v>12</v>
       </c>
-      <c r="F36" t="str" cm="1">
-        <f t="array" ref="F36">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-05 00:00:00</v>
+      <c r="F36" s="1">
+        <v>45327</v>
       </c>
       <c r="G36" t="str" cm="1">
         <f t="array" ref="G36">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6068,9 +6044,8 @@
       <c r="E37" t="s">
         <v>15</v>
       </c>
-      <c r="F37" t="str" cm="1">
-        <f t="array" ref="F37">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-06 00:00:00</v>
+      <c r="F37" s="1">
+        <v>45328</v>
       </c>
       <c r="G37" t="str" cm="1">
         <f t="array" ref="G37">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6101,9 +6076,8 @@
       <c r="E38" t="s">
         <v>9</v>
       </c>
-      <c r="F38" t="str" cm="1">
-        <f t="array" ref="F38">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-07 00:00:00</v>
+      <c r="F38" s="1">
+        <v>45329</v>
       </c>
       <c r="G38" t="str" cm="1">
         <f t="array" ref="G38">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6134,9 +6108,8 @@
       <c r="E39" t="s">
         <v>12</v>
       </c>
-      <c r="F39" t="str" cm="1">
-        <f t="array" ref="F39">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-08 00:00:00</v>
+      <c r="F39" s="1">
+        <v>45330</v>
       </c>
       <c r="G39" t="str" cm="1">
         <f t="array" ref="G39">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6167,9 +6140,8 @@
       <c r="E40" t="s">
         <v>15</v>
       </c>
-      <c r="F40" t="str" cm="1">
-        <f t="array" ref="F40">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-09 00:00:00</v>
+      <c r="F40" s="1">
+        <v>45331</v>
       </c>
       <c r="G40" t="str" cm="1">
         <f t="array" ref="G40">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6200,9 +6172,8 @@
       <c r="E41" t="s">
         <v>9</v>
       </c>
-      <c r="F41" t="str" cm="1">
-        <f t="array" ref="F41">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-10 00:00:00</v>
+      <c r="F41" s="1">
+        <v>45332</v>
       </c>
       <c r="G41" t="str" cm="1">
         <f t="array" ref="G41">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6233,9 +6204,8 @@
       <c r="E42" t="s">
         <v>12</v>
       </c>
-      <c r="F42" t="str" cm="1">
-        <f t="array" ref="F42">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-11 00:00:00</v>
+      <c r="F42" s="1">
+        <v>45333</v>
       </c>
       <c r="G42" t="str" cm="1">
         <f t="array" ref="G42">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6266,9 +6236,8 @@
       <c r="E43" t="s">
         <v>15</v>
       </c>
-      <c r="F43" t="str" cm="1">
-        <f t="array" ref="F43">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-12 00:00:00</v>
+      <c r="F43" s="1">
+        <v>45334</v>
       </c>
       <c r="G43" t="str" cm="1">
         <f t="array" ref="G43">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6299,9 +6268,8 @@
       <c r="E44" t="s">
         <v>9</v>
       </c>
-      <c r="F44" t="str" cm="1">
-        <f t="array" ref="F44">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-13 00:00:00</v>
+      <c r="F44" s="1">
+        <v>45335</v>
       </c>
       <c r="G44" t="str" cm="1">
         <f t="array" ref="G44">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6332,9 +6300,8 @@
       <c r="E45" t="s">
         <v>12</v>
       </c>
-      <c r="F45" t="str" cm="1">
-        <f t="array" ref="F45">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-14 00:00:00</v>
+      <c r="F45" s="1">
+        <v>45336</v>
       </c>
       <c r="G45" t="str" cm="1">
         <f t="array" ref="G45">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6365,9 +6332,8 @@
       <c r="E46" t="s">
         <v>15</v>
       </c>
-      <c r="F46" t="str" cm="1">
-        <f t="array" ref="F46">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-15 00:00:00</v>
+      <c r="F46" s="1">
+        <v>45337</v>
       </c>
       <c r="G46" t="str" cm="1">
         <f t="array" ref="G46">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6398,9 +6364,8 @@
       <c r="E47" t="s">
         <v>9</v>
       </c>
-      <c r="F47" t="str" cm="1">
-        <f t="array" ref="F47">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-16 00:00:00</v>
+      <c r="F47" s="1">
+        <v>45338</v>
       </c>
       <c r="G47" t="str" cm="1">
         <f t="array" ref="G47">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6431,9 +6396,8 @@
       <c r="E48" t="s">
         <v>12</v>
       </c>
-      <c r="F48" t="str" cm="1">
-        <f t="array" ref="F48">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-17 00:00:00</v>
+      <c r="F48" s="1">
+        <v>45339</v>
       </c>
       <c r="G48" t="str" cm="1">
         <f t="array" ref="G48">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6464,9 +6428,8 @@
       <c r="E49" t="s">
         <v>15</v>
       </c>
-      <c r="F49" t="str" cm="1">
-        <f t="array" ref="F49">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-18 00:00:00</v>
+      <c r="F49" s="1">
+        <v>45340</v>
       </c>
       <c r="G49" t="str" cm="1">
         <f t="array" ref="G49">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6497,9 +6460,8 @@
       <c r="E50" t="s">
         <v>9</v>
       </c>
-      <c r="F50" t="str" cm="1">
-        <f t="array" ref="F50">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-19 00:00:00</v>
+      <c r="F50" s="1">
+        <v>45341</v>
       </c>
       <c r="G50" t="str" cm="1">
         <f t="array" ref="G50">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6530,9 +6492,8 @@
       <c r="E51" t="s">
         <v>12</v>
       </c>
-      <c r="F51" t="str" cm="1">
-        <f t="array" ref="F51">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-20 00:00:00</v>
+      <c r="F51" s="1">
+        <v>45342</v>
       </c>
       <c r="G51" t="str" cm="1">
         <f t="array" ref="G51">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6563,9 +6524,8 @@
       <c r="E52" t="s">
         <v>15</v>
       </c>
-      <c r="F52" t="str" cm="1">
-        <f t="array" ref="F52">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-21 00:00:00</v>
+      <c r="F52" s="1">
+        <v>45343</v>
       </c>
       <c r="G52" t="str" cm="1">
         <f t="array" ref="G52">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6596,9 +6556,8 @@
       <c r="E53" t="s">
         <v>9</v>
       </c>
-      <c r="F53" t="str" cm="1">
-        <f t="array" ref="F53">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-22 00:00:00</v>
+      <c r="F53" s="1">
+        <v>45344</v>
       </c>
       <c r="G53" t="str" cm="1">
         <f t="array" ref="G53">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6629,9 +6588,8 @@
       <c r="E54" t="s">
         <v>12</v>
       </c>
-      <c r="F54" t="str" cm="1">
-        <f t="array" ref="F54">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-23 00:00:00</v>
+      <c r="F54" s="1">
+        <v>45345</v>
       </c>
       <c r="G54" t="str" cm="1">
         <f t="array" ref="G54">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6662,9 +6620,8 @@
       <c r="E55" t="s">
         <v>15</v>
       </c>
-      <c r="F55" t="str" cm="1">
-        <f t="array" ref="F55">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-24 00:00:00</v>
+      <c r="F55" s="1">
+        <v>45346</v>
       </c>
       <c r="G55" t="str" cm="1">
         <f t="array" ref="G55">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6695,9 +6652,8 @@
       <c r="E56" t="s">
         <v>9</v>
       </c>
-      <c r="F56" t="str" cm="1">
-        <f t="array" ref="F56">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-25 00:00:00</v>
+      <c r="F56" s="1">
+        <v>45347</v>
       </c>
       <c r="G56" t="str" cm="1">
         <f t="array" ref="G56">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6728,9 +6684,8 @@
       <c r="E57" t="s">
         <v>12</v>
       </c>
-      <c r="F57" t="str" cm="1">
-        <f t="array" ref="F57">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-26 00:00:00</v>
+      <c r="F57" s="1">
+        <v>45348</v>
       </c>
       <c r="G57" t="str" cm="1">
         <f t="array" ref="G57">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6761,9 +6716,8 @@
       <c r="E58" t="s">
         <v>15</v>
       </c>
-      <c r="F58" t="str" cm="1">
-        <f t="array" ref="F58">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-27 00:00:00</v>
+      <c r="F58" s="1">
+        <v>45349</v>
       </c>
       <c r="G58" t="str" cm="1">
         <f t="array" ref="G58">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6794,9 +6748,8 @@
       <c r="E59" t="s">
         <v>9</v>
       </c>
-      <c r="F59" t="str" cm="1">
-        <f t="array" ref="F59">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-28 00:00:00</v>
+      <c r="F59" s="1">
+        <v>45350</v>
       </c>
       <c r="G59" t="str" cm="1">
         <f t="array" ref="G59">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6827,9 +6780,8 @@
       <c r="E60" t="s">
         <v>12</v>
       </c>
-      <c r="F60" t="str" cm="1">
-        <f t="array" ref="F60">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-02-29 00:00:00</v>
+      <c r="F60" s="1">
+        <v>45351</v>
       </c>
       <c r="G60" t="str" cm="1">
         <f t="array" ref="G60">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6860,9 +6812,8 @@
       <c r="E61" t="s">
         <v>15</v>
       </c>
-      <c r="F61" t="str" cm="1">
-        <f t="array" ref="F61">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-01 00:00:00</v>
+      <c r="F61" s="1">
+        <v>45352</v>
       </c>
       <c r="G61" t="str" cm="1">
         <f t="array" ref="G61">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6893,9 +6844,8 @@
       <c r="E62" t="s">
         <v>9</v>
       </c>
-      <c r="F62" t="str" cm="1">
-        <f t="array" ref="F62">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-02 00:00:00</v>
+      <c r="F62" s="1">
+        <v>45353</v>
       </c>
       <c r="G62" t="str" cm="1">
         <f t="array" ref="G62">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6926,9 +6876,8 @@
       <c r="E63" t="s">
         <v>12</v>
       </c>
-      <c r="F63" t="str" cm="1">
-        <f t="array" ref="F63">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-03 00:00:00</v>
+      <c r="F63" s="1">
+        <v>45354</v>
       </c>
       <c r="G63" t="str" cm="1">
         <f t="array" ref="G63">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6959,9 +6908,8 @@
       <c r="E64" t="s">
         <v>15</v>
       </c>
-      <c r="F64" t="str" cm="1">
-        <f t="array" ref="F64">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-04 00:00:00</v>
+      <c r="F64" s="1">
+        <v>45355</v>
       </c>
       <c r="G64" t="str" cm="1">
         <f t="array" ref="G64">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -6992,9 +6940,8 @@
       <c r="E65" t="s">
         <v>9</v>
       </c>
-      <c r="F65" t="str" cm="1">
-        <f t="array" ref="F65">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-05 00:00:00</v>
+      <c r="F65" s="1">
+        <v>45356</v>
       </c>
       <c r="G65" t="str" cm="1">
         <f t="array" ref="G65">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7025,9 +6972,8 @@
       <c r="E66" t="s">
         <v>12</v>
       </c>
-      <c r="F66" t="str" cm="1">
-        <f t="array" ref="F66">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-06 00:00:00</v>
+      <c r="F66" s="1">
+        <v>45357</v>
       </c>
       <c r="G66" t="str" cm="1">
         <f t="array" ref="G66">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7058,9 +7004,8 @@
       <c r="E67" t="s">
         <v>15</v>
       </c>
-      <c r="F67" t="str" cm="1">
-        <f t="array" ref="F67">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-07 00:00:00</v>
+      <c r="F67" s="1">
+        <v>45358</v>
       </c>
       <c r="G67" t="str" cm="1">
         <f t="array" ref="G67">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7091,9 +7036,8 @@
       <c r="E68" t="s">
         <v>9</v>
       </c>
-      <c r="F68" t="str" cm="1">
-        <f t="array" ref="F68">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-08 00:00:00</v>
+      <c r="F68" s="1">
+        <v>45359</v>
       </c>
       <c r="G68" t="str" cm="1">
         <f t="array" ref="G68">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7124,9 +7068,8 @@
       <c r="E69" t="s">
         <v>12</v>
       </c>
-      <c r="F69" t="str" cm="1">
-        <f t="array" ref="F69">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-09 00:00:00</v>
+      <c r="F69" s="1">
+        <v>45360</v>
       </c>
       <c r="G69" t="str" cm="1">
         <f t="array" ref="G69">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7157,9 +7100,8 @@
       <c r="E70" t="s">
         <v>15</v>
       </c>
-      <c r="F70" t="str" cm="1">
-        <f t="array" ref="F70">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-10 00:00:00</v>
+      <c r="F70" s="1">
+        <v>45361</v>
       </c>
       <c r="G70" t="str" cm="1">
         <f t="array" ref="G70">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7190,9 +7132,8 @@
       <c r="E71" t="s">
         <v>9</v>
       </c>
-      <c r="F71" t="str" cm="1">
-        <f t="array" ref="F71">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-11 00:00:00</v>
+      <c r="F71" s="1">
+        <v>45362</v>
       </c>
       <c r="G71" t="str" cm="1">
         <f t="array" ref="G71">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7223,9 +7164,8 @@
       <c r="E72" t="s">
         <v>12</v>
       </c>
-      <c r="F72" t="str" cm="1">
-        <f t="array" ref="F72">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-12 00:00:00</v>
+      <c r="F72" s="1">
+        <v>45363</v>
       </c>
       <c r="G72" t="str" cm="1">
         <f t="array" ref="G72">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7256,9 +7196,8 @@
       <c r="E73" t="s">
         <v>15</v>
       </c>
-      <c r="F73" t="str" cm="1">
-        <f t="array" ref="F73">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-13 00:00:00</v>
+      <c r="F73" s="1">
+        <v>45364</v>
       </c>
       <c r="G73" t="str" cm="1">
         <f t="array" ref="G73">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7289,9 +7228,8 @@
       <c r="E74" t="s">
         <v>9</v>
       </c>
-      <c r="F74" t="str" cm="1">
-        <f t="array" ref="F74">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-14 00:00:00</v>
+      <c r="F74" s="1">
+        <v>45365</v>
       </c>
       <c r="G74" t="str" cm="1">
         <f t="array" ref="G74">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7322,9 +7260,8 @@
       <c r="E75" t="s">
         <v>12</v>
       </c>
-      <c r="F75" t="str" cm="1">
-        <f t="array" ref="F75">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-15 00:00:00</v>
+      <c r="F75" s="1">
+        <v>45366</v>
       </c>
       <c r="G75" t="str" cm="1">
         <f t="array" ref="G75">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7355,9 +7292,8 @@
       <c r="E76" t="s">
         <v>15</v>
       </c>
-      <c r="F76" t="str" cm="1">
-        <f t="array" ref="F76">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-16 00:00:00</v>
+      <c r="F76" s="1">
+        <v>45367</v>
       </c>
       <c r="G76" t="str" cm="1">
         <f t="array" ref="G76">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7388,9 +7324,8 @@
       <c r="E77" t="s">
         <v>9</v>
       </c>
-      <c r="F77" t="str" cm="1">
-        <f t="array" ref="F77">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-17 00:00:00</v>
+      <c r="F77" s="1">
+        <v>45368</v>
       </c>
       <c r="G77" t="str" cm="1">
         <f t="array" ref="G77">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7421,9 +7356,8 @@
       <c r="E78" t="s">
         <v>12</v>
       </c>
-      <c r="F78" t="str" cm="1">
-        <f t="array" ref="F78">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-18 00:00:00</v>
+      <c r="F78" s="1">
+        <v>45369</v>
       </c>
       <c r="G78" t="str" cm="1">
         <f t="array" ref="G78">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7454,9 +7388,8 @@
       <c r="E79" t="s">
         <v>15</v>
       </c>
-      <c r="F79" t="str" cm="1">
-        <f t="array" ref="F79">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-19 00:00:00</v>
+      <c r="F79" s="1">
+        <v>45370</v>
       </c>
       <c r="G79" t="str" cm="1">
         <f t="array" ref="G79">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7487,9 +7420,8 @@
       <c r="E80" t="s">
         <v>9</v>
       </c>
-      <c r="F80" t="str" cm="1">
-        <f t="array" ref="F80">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-20 00:00:00</v>
+      <c r="F80" s="1">
+        <v>45371</v>
       </c>
       <c r="G80" t="str" cm="1">
         <f t="array" ref="G80">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7520,9 +7452,8 @@
       <c r="E81" t="s">
         <v>12</v>
       </c>
-      <c r="F81" t="str" cm="1">
-        <f t="array" ref="F81">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-21 00:00:00</v>
+      <c r="F81" s="1">
+        <v>45372</v>
       </c>
       <c r="G81" t="str" cm="1">
         <f t="array" ref="G81">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7553,9 +7484,8 @@
       <c r="E82" t="s">
         <v>15</v>
       </c>
-      <c r="F82" t="str" cm="1">
-        <f t="array" ref="F82">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-22 00:00:00</v>
+      <c r="F82" s="1">
+        <v>45373</v>
       </c>
       <c r="G82" t="str" cm="1">
         <f t="array" ref="G82">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7586,9 +7516,8 @@
       <c r="E83" t="s">
         <v>9</v>
       </c>
-      <c r="F83" t="str" cm="1">
-        <f t="array" ref="F83">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-23 00:00:00</v>
+      <c r="F83" s="1">
+        <v>45374</v>
       </c>
       <c r="G83" t="str" cm="1">
         <f t="array" ref="G83">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7619,9 +7548,8 @@
       <c r="E84" t="s">
         <v>12</v>
       </c>
-      <c r="F84" t="str" cm="1">
-        <f t="array" ref="F84">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-24 00:00:00</v>
+      <c r="F84" s="1">
+        <v>45375</v>
       </c>
       <c r="G84" t="str" cm="1">
         <f t="array" ref="G84">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7652,9 +7580,8 @@
       <c r="E85" t="s">
         <v>15</v>
       </c>
-      <c r="F85" t="str" cm="1">
-        <f t="array" ref="F85">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-25 00:00:00</v>
+      <c r="F85" s="1">
+        <v>45376</v>
       </c>
       <c r="G85" t="str" cm="1">
         <f t="array" ref="G85">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7685,9 +7612,8 @@
       <c r="E86" t="s">
         <v>9</v>
       </c>
-      <c r="F86" t="str" cm="1">
-        <f t="array" ref="F86">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-26 00:00:00</v>
+      <c r="F86" s="1">
+        <v>45377</v>
       </c>
       <c r="G86" t="str" cm="1">
         <f t="array" ref="G86">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7718,9 +7644,8 @@
       <c r="E87" t="s">
         <v>12</v>
       </c>
-      <c r="F87" t="str" cm="1">
-        <f t="array" ref="F87">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-27 00:00:00</v>
+      <c r="F87" s="1">
+        <v>45378</v>
       </c>
       <c r="G87" t="str" cm="1">
         <f t="array" ref="G87">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7751,9 +7676,8 @@
       <c r="E88" t="s">
         <v>15</v>
       </c>
-      <c r="F88" t="str" cm="1">
-        <f t="array" ref="F88">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-28 00:00:00</v>
+      <c r="F88" s="1">
+        <v>45379</v>
       </c>
       <c r="G88" t="str" cm="1">
         <f t="array" ref="G88">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7784,9 +7708,8 @@
       <c r="E89" t="s">
         <v>9</v>
       </c>
-      <c r="F89" t="str" cm="1">
-        <f t="array" ref="F89">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-29 00:00:00</v>
+      <c r="F89" s="1">
+        <v>45380</v>
       </c>
       <c r="G89" t="str" cm="1">
         <f t="array" ref="G89">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7817,9 +7740,8 @@
       <c r="E90" t="s">
         <v>12</v>
       </c>
-      <c r="F90" t="str" cm="1">
-        <f t="array" ref="F90">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-30 00:00:00</v>
+      <c r="F90" s="1">
+        <v>45381</v>
       </c>
       <c r="G90" t="str" cm="1">
         <f t="array" ref="G90">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7850,9 +7772,8 @@
       <c r="E91" t="s">
         <v>15</v>
       </c>
-      <c r="F91" t="str" cm="1">
-        <f t="array" ref="F91">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-03-31 00:00:00</v>
+      <c r="F91" s="1">
+        <v>45382</v>
       </c>
       <c r="G91" t="str" cm="1">
         <f t="array" ref="G91">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7883,9 +7804,8 @@
       <c r="E92" t="s">
         <v>9</v>
       </c>
-      <c r="F92" t="str" cm="1">
-        <f t="array" ref="F92">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-01 00:00:00</v>
+      <c r="F92" s="1">
+        <v>45383</v>
       </c>
       <c r="G92" t="str" cm="1">
         <f t="array" ref="G92">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7916,9 +7836,8 @@
       <c r="E93" t="s">
         <v>12</v>
       </c>
-      <c r="F93" t="str" cm="1">
-        <f t="array" ref="F93">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-02 00:00:00</v>
+      <c r="F93" s="1">
+        <v>45384</v>
       </c>
       <c r="G93" t="str" cm="1">
         <f t="array" ref="G93">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7949,9 +7868,8 @@
       <c r="E94" t="s">
         <v>15</v>
       </c>
-      <c r="F94" t="str" cm="1">
-        <f t="array" ref="F94">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-03 00:00:00</v>
+      <c r="F94" s="1">
+        <v>45385</v>
       </c>
       <c r="G94" t="str" cm="1">
         <f t="array" ref="G94">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -7982,9 +7900,8 @@
       <c r="E95" t="s">
         <v>9</v>
       </c>
-      <c r="F95" t="str" cm="1">
-        <f t="array" ref="F95">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-04 00:00:00</v>
+      <c r="F95" s="1">
+        <v>45386</v>
       </c>
       <c r="G95" t="str" cm="1">
         <f t="array" ref="G95">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8015,9 +7932,8 @@
       <c r="E96" t="s">
         <v>12</v>
       </c>
-      <c r="F96" t="str" cm="1">
-        <f t="array" ref="F96">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-05 00:00:00</v>
+      <c r="F96" s="1">
+        <v>45387</v>
       </c>
       <c r="G96" t="str" cm="1">
         <f t="array" ref="G96">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8048,12 +7964,11 @@
       <c r="E97" t="s">
         <v>15</v>
       </c>
-      <c r="F97" t="s">
-        <v>392</v>
-      </c>
-      <c r="G97" cm="1">
-        <f t="array" ref="G97">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0</v>
+      <c r="F97" s="1">
+        <v>45388</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="H97" t="str" cm="1">
         <f t="array" ref="H97">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -8080,12 +7995,11 @@
       <c r="E98" t="s">
         <v>9</v>
       </c>
-      <c r="F98" t="s">
-        <v>395</v>
-      </c>
-      <c r="G98" cm="1">
-        <f t="array" ref="G98">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0</v>
+      <c r="F98" s="1">
+        <v>45389</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>399</v>
       </c>
       <c r="H98" t="str" cm="1">
         <f t="array" ref="H98">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -8112,9 +8026,8 @@
       <c r="E99" t="s">
         <v>12</v>
       </c>
-      <c r="F99" t="str" cm="1">
-        <f t="array" ref="F99">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-08 00:00:00</v>
+      <c r="F99" s="1">
+        <v>45390</v>
       </c>
       <c r="G99" t="str" cm="1">
         <f t="array" ref="G99">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8145,12 +8058,11 @@
       <c r="E100" t="s">
         <v>15</v>
       </c>
-      <c r="F100" t="s">
-        <v>402</v>
-      </c>
-      <c r="G100" cm="1">
-        <f t="array" ref="G100">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
-        <v>0</v>
+      <c r="F100" s="1">
+        <v>45391</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>399</v>
       </c>
       <c r="H100" t="str" cm="1">
         <f t="array" ref="H100">INDEX(D:D, (ROW()-ROW(D$2))*3 + 3)</f>
@@ -8177,9 +8089,8 @@
       <c r="E101" t="s">
         <v>9</v>
       </c>
-      <c r="F101" t="str" cm="1">
-        <f t="array" ref="F101">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-10 00:00:00</v>
+      <c r="F101" s="1">
+        <v>45392</v>
       </c>
       <c r="G101" t="str" cm="1">
         <f t="array" ref="G101">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8210,9 +8121,8 @@
       <c r="E102" t="s">
         <v>12</v>
       </c>
-      <c r="F102" t="str" cm="1">
-        <f t="array" ref="F102">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-11 00:00:00</v>
+      <c r="F102" s="1">
+        <v>45393</v>
       </c>
       <c r="G102" t="str" cm="1">
         <f t="array" ref="G102">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8243,9 +8153,8 @@
       <c r="E103" t="s">
         <v>15</v>
       </c>
-      <c r="F103" t="str" cm="1">
-        <f t="array" ref="F103">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-12 00:00:00</v>
+      <c r="F103" s="1">
+        <v>45394</v>
       </c>
       <c r="G103" t="str" cm="1">
         <f t="array" ref="G103">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8276,9 +8185,8 @@
       <c r="E104" t="s">
         <v>9</v>
       </c>
-      <c r="F104" t="str" cm="1">
-        <f t="array" ref="F104">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-13 00:00:00</v>
+      <c r="F104" s="1">
+        <v>45395</v>
       </c>
       <c r="G104" t="str" cm="1">
         <f t="array" ref="G104">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8309,9 +8217,8 @@
       <c r="E105" t="s">
         <v>12</v>
       </c>
-      <c r="F105" t="str" cm="1">
-        <f t="array" ref="F105">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-14 00:00:00</v>
+      <c r="F105" s="1">
+        <v>45396</v>
       </c>
       <c r="G105" t="str" cm="1">
         <f t="array" ref="G105">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8342,9 +8249,8 @@
       <c r="E106" t="s">
         <v>15</v>
       </c>
-      <c r="F106" t="str" cm="1">
-        <f t="array" ref="F106">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-15 00:00:00</v>
+      <c r="F106" s="1">
+        <v>45397</v>
       </c>
       <c r="G106" t="str" cm="1">
         <f t="array" ref="G106">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8375,9 +8281,8 @@
       <c r="E107" t="s">
         <v>9</v>
       </c>
-      <c r="F107" t="str" cm="1">
-        <f t="array" ref="F107">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-16 00:00:00</v>
+      <c r="F107" s="1">
+        <v>45398</v>
       </c>
       <c r="G107" t="str" cm="1">
         <f t="array" ref="G107">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8408,9 +8313,8 @@
       <c r="E108" t="s">
         <v>12</v>
       </c>
-      <c r="F108" t="str" cm="1">
-        <f t="array" ref="F108">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-17 00:00:00</v>
+      <c r="F108" s="1">
+        <v>45399</v>
       </c>
       <c r="G108" t="str" cm="1">
         <f t="array" ref="G108">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8441,9 +8345,8 @@
       <c r="E109" t="s">
         <v>15</v>
       </c>
-      <c r="F109" t="str" cm="1">
-        <f t="array" ref="F109">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-18 00:00:00</v>
+      <c r="F109" s="1">
+        <v>45400</v>
       </c>
       <c r="G109" t="str" cm="1">
         <f t="array" ref="G109">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8474,9 +8377,8 @@
       <c r="E110" t="s">
         <v>9</v>
       </c>
-      <c r="F110" t="str" cm="1">
-        <f t="array" ref="F110">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-19 00:00:00</v>
+      <c r="F110" s="1">
+        <v>45401</v>
       </c>
       <c r="G110" t="str" cm="1">
         <f t="array" ref="G110">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8507,9 +8409,8 @@
       <c r="E111" t="s">
         <v>12</v>
       </c>
-      <c r="F111" t="str" cm="1">
-        <f t="array" ref="F111">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-20 00:00:00</v>
+      <c r="F111" s="1">
+        <v>45402</v>
       </c>
       <c r="G111" t="str" cm="1">
         <f t="array" ref="G111">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8540,9 +8441,8 @@
       <c r="E112" t="s">
         <v>15</v>
       </c>
-      <c r="F112" t="str" cm="1">
-        <f t="array" ref="F112">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-21 00:00:00</v>
+      <c r="F112" s="1">
+        <v>45403</v>
       </c>
       <c r="G112" t="str" cm="1">
         <f t="array" ref="G112">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8573,9 +8473,8 @@
       <c r="E113" t="s">
         <v>9</v>
       </c>
-      <c r="F113" t="str" cm="1">
-        <f t="array" ref="F113">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-22 00:00:00</v>
+      <c r="F113" s="1">
+        <v>45404</v>
       </c>
       <c r="G113" t="str" cm="1">
         <f t="array" ref="G113">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8606,9 +8505,8 @@
       <c r="E114" t="s">
         <v>12</v>
       </c>
-      <c r="F114" t="str" cm="1">
-        <f t="array" ref="F114">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-23 00:00:00</v>
+      <c r="F114" s="1">
+        <v>45405</v>
       </c>
       <c r="G114" t="str" cm="1">
         <f t="array" ref="G114">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8639,9 +8537,8 @@
       <c r="E115" t="s">
         <v>15</v>
       </c>
-      <c r="F115" t="str" cm="1">
-        <f t="array" ref="F115">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-24 00:00:00</v>
+      <c r="F115" s="1">
+        <v>45406</v>
       </c>
       <c r="G115" t="str" cm="1">
         <f t="array" ref="G115">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8672,9 +8569,8 @@
       <c r="E116" t="s">
         <v>9</v>
       </c>
-      <c r="F116" t="str" cm="1">
-        <f t="array" ref="F116">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-25 00:00:00</v>
+      <c r="F116" s="1">
+        <v>45407</v>
       </c>
       <c r="G116" t="str" cm="1">
         <f t="array" ref="G116">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8705,9 +8601,8 @@
       <c r="E117" t="s">
         <v>12</v>
       </c>
-      <c r="F117" t="str" cm="1">
-        <f t="array" ref="F117">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-26 00:00:00</v>
+      <c r="F117" s="1">
+        <v>45408</v>
       </c>
       <c r="G117" t="str" cm="1">
         <f t="array" ref="G117">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8738,9 +8633,8 @@
       <c r="E118" t="s">
         <v>15</v>
       </c>
-      <c r="F118" t="str" cm="1">
-        <f t="array" ref="F118">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-27 00:00:00</v>
+      <c r="F118" s="1">
+        <v>45409</v>
       </c>
       <c r="G118" t="str" cm="1">
         <f t="array" ref="G118">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8771,9 +8665,8 @@
       <c r="E119" t="s">
         <v>9</v>
       </c>
-      <c r="F119" t="str" cm="1">
-        <f t="array" ref="F119">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-28 00:00:00</v>
+      <c r="F119" s="1">
+        <v>45410</v>
       </c>
       <c r="G119" t="str" cm="1">
         <f t="array" ref="G119">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8804,9 +8697,8 @@
       <c r="E120" t="s">
         <v>12</v>
       </c>
-      <c r="F120" t="str" cm="1">
-        <f t="array" ref="F120">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-29 00:00:00</v>
+      <c r="F120" s="1">
+        <v>45411</v>
       </c>
       <c r="G120" t="str" cm="1">
         <f t="array" ref="G120">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8837,9 +8729,8 @@
       <c r="E121" t="s">
         <v>15</v>
       </c>
-      <c r="F121" t="str" cm="1">
-        <f t="array" ref="F121">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-04-30 00:00:00</v>
+      <c r="F121" s="1">
+        <v>45412</v>
       </c>
       <c r="G121" t="str" cm="1">
         <f t="array" ref="G121">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8870,9 +8761,8 @@
       <c r="E122" t="s">
         <v>9</v>
       </c>
-      <c r="F122" t="str" cm="1">
-        <f t="array" ref="F122">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-01 00:00:00</v>
+      <c r="F122" s="1">
+        <v>45413</v>
       </c>
       <c r="G122" t="str" cm="1">
         <f t="array" ref="G122">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8903,9 +8793,8 @@
       <c r="E123" t="s">
         <v>12</v>
       </c>
-      <c r="F123" t="str" cm="1">
-        <f t="array" ref="F123">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-02 00:00:00</v>
+      <c r="F123" s="1">
+        <v>45414</v>
       </c>
       <c r="G123" t="str" cm="1">
         <f t="array" ref="G123">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8936,9 +8825,8 @@
       <c r="E124" t="s">
         <v>15</v>
       </c>
-      <c r="F124" t="str" cm="1">
-        <f t="array" ref="F124">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-03 00:00:00</v>
+      <c r="F124" s="1">
+        <v>45415</v>
       </c>
       <c r="G124" t="str" cm="1">
         <f t="array" ref="G124">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -8969,9 +8857,8 @@
       <c r="E125" t="s">
         <v>9</v>
       </c>
-      <c r="F125" t="str" cm="1">
-        <f t="array" ref="F125">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-04 00:00:00</v>
+      <c r="F125" s="1">
+        <v>45416</v>
       </c>
       <c r="G125" t="str" cm="1">
         <f t="array" ref="G125">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9002,9 +8889,8 @@
       <c r="E126" t="s">
         <v>12</v>
       </c>
-      <c r="F126" t="str" cm="1">
-        <f t="array" ref="F126">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-05 00:00:00</v>
+      <c r="F126" s="1">
+        <v>45417</v>
       </c>
       <c r="G126" t="str" cm="1">
         <f t="array" ref="G126">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9035,9 +8921,8 @@
       <c r="E127" t="s">
         <v>15</v>
       </c>
-      <c r="F127" t="str" cm="1">
-        <f t="array" ref="F127">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-06 00:00:00</v>
+      <c r="F127" s="1">
+        <v>45418</v>
       </c>
       <c r="G127" t="str" cm="1">
         <f t="array" ref="G127">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9068,9 +8953,8 @@
       <c r="E128" t="s">
         <v>9</v>
       </c>
-      <c r="F128" t="str" cm="1">
-        <f t="array" ref="F128">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-07 00:00:00</v>
+      <c r="F128" s="1">
+        <v>45419</v>
       </c>
       <c r="G128" t="str" cm="1">
         <f t="array" ref="G128">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9101,9 +8985,8 @@
       <c r="E129" t="s">
         <v>12</v>
       </c>
-      <c r="F129" t="str" cm="1">
-        <f t="array" ref="F129">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-08 00:00:00</v>
+      <c r="F129" s="1">
+        <v>45420</v>
       </c>
       <c r="G129" t="str" cm="1">
         <f t="array" ref="G129">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9134,9 +9017,8 @@
       <c r="E130" t="s">
         <v>15</v>
       </c>
-      <c r="F130" t="str" cm="1">
-        <f t="array" ref="F130">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-09 00:00:00</v>
+      <c r="F130" s="1">
+        <v>45421</v>
       </c>
       <c r="G130" t="str" cm="1">
         <f t="array" ref="G130">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9167,9 +9049,8 @@
       <c r="E131" t="s">
         <v>9</v>
       </c>
-      <c r="F131" t="str" cm="1">
-        <f t="array" ref="F131">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-10 00:00:00</v>
+      <c r="F131" s="1">
+        <v>45422</v>
       </c>
       <c r="G131" t="str" cm="1">
         <f t="array" ref="G131">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9200,9 +9081,8 @@
       <c r="E132" t="s">
         <v>12</v>
       </c>
-      <c r="F132" t="str" cm="1">
-        <f t="array" ref="F132">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-11 00:00:00</v>
+      <c r="F132" s="1">
+        <v>45423</v>
       </c>
       <c r="G132" t="str" cm="1">
         <f t="array" ref="G132">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9233,9 +9113,8 @@
       <c r="E133" t="s">
         <v>15</v>
       </c>
-      <c r="F133" t="str" cm="1">
-        <f t="array" ref="F133">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-12 00:00:00</v>
+      <c r="F133" s="1">
+        <v>45424</v>
       </c>
       <c r="G133" t="str" cm="1">
         <f t="array" ref="G133">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9266,9 +9145,8 @@
       <c r="E134" t="s">
         <v>9</v>
       </c>
-      <c r="F134" t="str" cm="1">
-        <f t="array" ref="F134">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-13 00:00:00</v>
+      <c r="F134" s="1">
+        <v>45425</v>
       </c>
       <c r="G134" t="str" cm="1">
         <f t="array" ref="G134">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9299,9 +9177,8 @@
       <c r="E135" t="s">
         <v>12</v>
       </c>
-      <c r="F135" t="str" cm="1">
-        <f t="array" ref="F135">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-14 00:00:00</v>
+      <c r="F135" s="1">
+        <v>45426</v>
       </c>
       <c r="G135" t="str" cm="1">
         <f t="array" ref="G135">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9332,9 +9209,8 @@
       <c r="E136" t="s">
         <v>15</v>
       </c>
-      <c r="F136" t="str" cm="1">
-        <f t="array" ref="F136">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-15 00:00:00</v>
+      <c r="F136" s="1">
+        <v>45427</v>
       </c>
       <c r="G136" t="str" cm="1">
         <f t="array" ref="G136">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9365,9 +9241,8 @@
       <c r="E137" t="s">
         <v>9</v>
       </c>
-      <c r="F137" t="str" cm="1">
-        <f t="array" ref="F137">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-16 00:00:00</v>
+      <c r="F137" s="1">
+        <v>45428</v>
       </c>
       <c r="G137" t="str" cm="1">
         <f t="array" ref="G137">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9398,9 +9273,8 @@
       <c r="E138" t="s">
         <v>12</v>
       </c>
-      <c r="F138" t="str" cm="1">
-        <f t="array" ref="F138">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-17 00:00:00</v>
+      <c r="F138" s="1">
+        <v>45429</v>
       </c>
       <c r="G138" t="str" cm="1">
         <f t="array" ref="G138">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9431,9 +9305,8 @@
       <c r="E139" t="s">
         <v>15</v>
       </c>
-      <c r="F139" t="str" cm="1">
-        <f t="array" ref="F139">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-18 00:00:00</v>
+      <c r="F139" s="1">
+        <v>45430</v>
       </c>
       <c r="G139" t="str" cm="1">
         <f t="array" ref="G139">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9464,9 +9337,8 @@
       <c r="E140" t="s">
         <v>9</v>
       </c>
-      <c r="F140" t="str" cm="1">
-        <f t="array" ref="F140">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-19 00:00:00</v>
+      <c r="F140" s="1">
+        <v>45431</v>
       </c>
       <c r="G140" t="str" cm="1">
         <f t="array" ref="G140">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9497,9 +9369,8 @@
       <c r="E141" t="s">
         <v>12</v>
       </c>
-      <c r="F141" t="str" cm="1">
-        <f t="array" ref="F141">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-20 00:00:00</v>
+      <c r="F141" s="1">
+        <v>45432</v>
       </c>
       <c r="G141" t="str" cm="1">
         <f t="array" ref="G141">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9530,9 +9401,8 @@
       <c r="E142" t="s">
         <v>15</v>
       </c>
-      <c r="F142" t="str" cm="1">
-        <f t="array" ref="F142">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-21 00:00:00</v>
+      <c r="F142" s="1">
+        <v>45433</v>
       </c>
       <c r="G142" t="str" cm="1">
         <f t="array" ref="G142">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9563,9 +9433,8 @@
       <c r="E143" t="s">
         <v>9</v>
       </c>
-      <c r="F143" t="str" cm="1">
-        <f t="array" ref="F143">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-22 00:00:00</v>
+      <c r="F143" s="1">
+        <v>45434</v>
       </c>
       <c r="G143" t="str" cm="1">
         <f t="array" ref="G143">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9596,9 +9465,8 @@
       <c r="E144" t="s">
         <v>12</v>
       </c>
-      <c r="F144" t="str" cm="1">
-        <f t="array" ref="F144">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-23 00:00:00</v>
+      <c r="F144" s="1">
+        <v>45435</v>
       </c>
       <c r="G144" t="str" cm="1">
         <f t="array" ref="G144">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9629,9 +9497,8 @@
       <c r="E145" t="s">
         <v>15</v>
       </c>
-      <c r="F145" t="str" cm="1">
-        <f t="array" ref="F145">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-24 00:00:00</v>
+      <c r="F145" s="1">
+        <v>45436</v>
       </c>
       <c r="G145" t="str" cm="1">
         <f t="array" ref="G145">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9662,9 +9529,8 @@
       <c r="E146" t="s">
         <v>9</v>
       </c>
-      <c r="F146" t="str" cm="1">
-        <f t="array" ref="F146">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-25 00:00:00</v>
+      <c r="F146" s="1">
+        <v>45437</v>
       </c>
       <c r="G146" t="str" cm="1">
         <f t="array" ref="G146">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9695,9 +9561,8 @@
       <c r="E147" t="s">
         <v>12</v>
       </c>
-      <c r="F147" t="str" cm="1">
-        <f t="array" ref="F147">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-26 00:00:00</v>
+      <c r="F147" s="1">
+        <v>45438</v>
       </c>
       <c r="G147" t="str" cm="1">
         <f t="array" ref="G147">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9728,9 +9593,8 @@
       <c r="E148" t="s">
         <v>15</v>
       </c>
-      <c r="F148" t="str" cm="1">
-        <f t="array" ref="F148">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-27 00:00:00</v>
+      <c r="F148" s="1">
+        <v>45439</v>
       </c>
       <c r="G148" t="str" cm="1">
         <f t="array" ref="G148">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9761,9 +9625,8 @@
       <c r="E149" t="s">
         <v>9</v>
       </c>
-      <c r="F149" t="str" cm="1">
-        <f t="array" ref="F149">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-28 00:00:00</v>
+      <c r="F149" s="1">
+        <v>45440</v>
       </c>
       <c r="G149" t="str" cm="1">
         <f t="array" ref="G149">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9794,9 +9657,8 @@
       <c r="E150" t="s">
         <v>12</v>
       </c>
-      <c r="F150" t="str" cm="1">
-        <f t="array" ref="F150">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-29 00:00:00</v>
+      <c r="F150" s="1">
+        <v>45441</v>
       </c>
       <c r="G150" t="str" cm="1">
         <f t="array" ref="G150">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9827,9 +9689,8 @@
       <c r="E151" t="s">
         <v>15</v>
       </c>
-      <c r="F151" t="str" cm="1">
-        <f t="array" ref="F151">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-30 00:00:00</v>
+      <c r="F151" s="1">
+        <v>45442</v>
       </c>
       <c r="G151" t="str" cm="1">
         <f t="array" ref="G151">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9860,9 +9721,8 @@
       <c r="E152" t="s">
         <v>9</v>
       </c>
-      <c r="F152" t="str" cm="1">
-        <f t="array" ref="F152">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-05-31 00:00:00</v>
+      <c r="F152" s="1">
+        <v>45443</v>
       </c>
       <c r="G152" t="str" cm="1">
         <f t="array" ref="G152">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9893,9 +9753,8 @@
       <c r="E153" t="s">
         <v>12</v>
       </c>
-      <c r="F153" t="str" cm="1">
-        <f t="array" ref="F153">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-01 00:00:00</v>
+      <c r="F153" s="1">
+        <v>45444</v>
       </c>
       <c r="G153" t="str" cm="1">
         <f t="array" ref="G153">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9926,9 +9785,8 @@
       <c r="E154" t="s">
         <v>15</v>
       </c>
-      <c r="F154" t="str" cm="1">
-        <f t="array" ref="F154">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-02 00:00:00</v>
+      <c r="F154" s="1">
+        <v>45445</v>
       </c>
       <c r="G154" t="str" cm="1">
         <f t="array" ref="G154">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9959,9 +9817,8 @@
       <c r="E155" t="s">
         <v>9</v>
       </c>
-      <c r="F155" t="str" cm="1">
-        <f t="array" ref="F155">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-03 00:00:00</v>
+      <c r="F155" s="1">
+        <v>45446</v>
       </c>
       <c r="G155" t="str" cm="1">
         <f t="array" ref="G155">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -9992,9 +9849,8 @@
       <c r="E156" t="s">
         <v>12</v>
       </c>
-      <c r="F156" t="str" cm="1">
-        <f t="array" ref="F156">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-04 00:00:00</v>
+      <c r="F156" s="1">
+        <v>45447</v>
       </c>
       <c r="G156" t="str" cm="1">
         <f t="array" ref="G156">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10025,9 +9881,8 @@
       <c r="E157" t="s">
         <v>15</v>
       </c>
-      <c r="F157" t="str" cm="1">
-        <f t="array" ref="F157">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-05 00:00:00</v>
+      <c r="F157" s="1">
+        <v>45448</v>
       </c>
       <c r="G157" t="str" cm="1">
         <f t="array" ref="G157">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10058,9 +9913,8 @@
       <c r="E158" t="s">
         <v>9</v>
       </c>
-      <c r="F158" t="str" cm="1">
-        <f t="array" ref="F158">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-06 00:00:00</v>
+      <c r="F158" s="1">
+        <v>45449</v>
       </c>
       <c r="G158" t="str" cm="1">
         <f t="array" ref="G158">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10091,9 +9945,8 @@
       <c r="E159" t="s">
         <v>12</v>
       </c>
-      <c r="F159" t="str" cm="1">
-        <f t="array" ref="F159">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-07 00:00:00</v>
+      <c r="F159" s="1">
+        <v>45450</v>
       </c>
       <c r="G159" t="str" cm="1">
         <f t="array" ref="G159">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10124,9 +9977,8 @@
       <c r="E160" t="s">
         <v>15</v>
       </c>
-      <c r="F160" t="str" cm="1">
-        <f t="array" ref="F160">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-08 00:00:00</v>
+      <c r="F160" s="1">
+        <v>45451</v>
       </c>
       <c r="G160" t="str" cm="1">
         <f t="array" ref="G160">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10157,9 +10009,8 @@
       <c r="E161" t="s">
         <v>9</v>
       </c>
-      <c r="F161" t="str" cm="1">
-        <f t="array" ref="F161">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-09 00:00:00</v>
+      <c r="F161" s="1">
+        <v>45452</v>
       </c>
       <c r="G161" t="str" cm="1">
         <f t="array" ref="G161">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10190,9 +10041,8 @@
       <c r="E162" t="s">
         <v>12</v>
       </c>
-      <c r="F162" t="str" cm="1">
-        <f t="array" ref="F162">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-10 00:00:00</v>
+      <c r="F162" s="1">
+        <v>45453</v>
       </c>
       <c r="G162" t="str" cm="1">
         <f t="array" ref="G162">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10223,9 +10073,8 @@
       <c r="E163" t="s">
         <v>15</v>
       </c>
-      <c r="F163" t="str" cm="1">
-        <f t="array" ref="F163">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-11 00:00:00</v>
+      <c r="F163" s="1">
+        <v>45454</v>
       </c>
       <c r="G163" t="str" cm="1">
         <f t="array" ref="G163">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10256,9 +10105,8 @@
       <c r="E164" t="s">
         <v>9</v>
       </c>
-      <c r="F164" t="str" cm="1">
-        <f t="array" ref="F164">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-12 00:00:00</v>
+      <c r="F164" s="1">
+        <v>45455</v>
       </c>
       <c r="G164" t="str" cm="1">
         <f t="array" ref="G164">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10289,9 +10137,8 @@
       <c r="E165" t="s">
         <v>12</v>
       </c>
-      <c r="F165" t="str" cm="1">
-        <f t="array" ref="F165">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-13 00:00:00</v>
+      <c r="F165" s="1">
+        <v>45456</v>
       </c>
       <c r="G165" t="str" cm="1">
         <f t="array" ref="G165">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10322,9 +10169,8 @@
       <c r="E166" t="s">
         <v>15</v>
       </c>
-      <c r="F166" t="str" cm="1">
-        <f t="array" ref="F166">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-14 00:00:00</v>
+      <c r="F166" s="1">
+        <v>45457</v>
       </c>
       <c r="G166" t="str" cm="1">
         <f t="array" ref="G166">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10355,9 +10201,8 @@
       <c r="E167" t="s">
         <v>9</v>
       </c>
-      <c r="F167" t="str" cm="1">
-        <f t="array" ref="F167">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-15 00:00:00</v>
+      <c r="F167" s="1">
+        <v>45458</v>
       </c>
       <c r="G167" t="str" cm="1">
         <f t="array" ref="G167">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10388,9 +10233,8 @@
       <c r="E168" t="s">
         <v>12</v>
       </c>
-      <c r="F168" t="str" cm="1">
-        <f t="array" ref="F168">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-16 00:00:00</v>
+      <c r="F168" s="1">
+        <v>45459</v>
       </c>
       <c r="G168" t="str" cm="1">
         <f t="array" ref="G168">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10421,9 +10265,8 @@
       <c r="E169" t="s">
         <v>15</v>
       </c>
-      <c r="F169" t="str" cm="1">
-        <f t="array" ref="F169">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-17 00:00:00</v>
+      <c r="F169" s="1">
+        <v>45460</v>
       </c>
       <c r="G169" t="str" cm="1">
         <f t="array" ref="G169">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10454,9 +10297,8 @@
       <c r="E170" t="s">
         <v>9</v>
       </c>
-      <c r="F170" t="str" cm="1">
-        <f t="array" ref="F170">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-18 00:00:00</v>
+      <c r="F170" s="1">
+        <v>45461</v>
       </c>
       <c r="G170" t="str" cm="1">
         <f t="array" ref="G170">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10487,9 +10329,8 @@
       <c r="E171" t="s">
         <v>12</v>
       </c>
-      <c r="F171" t="str" cm="1">
-        <f t="array" ref="F171">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-19 00:00:00</v>
+      <c r="F171" s="1">
+        <v>45462</v>
       </c>
       <c r="G171" t="str" cm="1">
         <f t="array" ref="G171">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10520,9 +10361,8 @@
       <c r="E172" t="s">
         <v>15</v>
       </c>
-      <c r="F172" t="str" cm="1">
-        <f t="array" ref="F172">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-20 00:00:00</v>
+      <c r="F172" s="1">
+        <v>45463</v>
       </c>
       <c r="G172" t="str" cm="1">
         <f t="array" ref="G172">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10553,9 +10393,8 @@
       <c r="E173" t="s">
         <v>9</v>
       </c>
-      <c r="F173" t="str" cm="1">
-        <f t="array" ref="F173">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-21 00:00:00</v>
+      <c r="F173" s="1">
+        <v>45464</v>
       </c>
       <c r="G173" t="str" cm="1">
         <f t="array" ref="G173">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10586,9 +10425,8 @@
       <c r="E174" t="s">
         <v>12</v>
       </c>
-      <c r="F174" t="str" cm="1">
-        <f t="array" ref="F174">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-22 00:00:00</v>
+      <c r="F174" s="1">
+        <v>45465</v>
       </c>
       <c r="G174" t="str" cm="1">
         <f t="array" ref="G174">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10619,9 +10457,8 @@
       <c r="E175" t="s">
         <v>15</v>
       </c>
-      <c r="F175" t="str" cm="1">
-        <f t="array" ref="F175">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-23 00:00:00</v>
+      <c r="F175" s="1">
+        <v>45466</v>
       </c>
       <c r="G175" t="str" cm="1">
         <f t="array" ref="G175">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10652,9 +10489,8 @@
       <c r="E176" t="s">
         <v>9</v>
       </c>
-      <c r="F176" t="str" cm="1">
-        <f t="array" ref="F176">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-24 00:00:00</v>
+      <c r="F176" s="1">
+        <v>45467</v>
       </c>
       <c r="G176" t="str" cm="1">
         <f t="array" ref="G176">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10685,9 +10521,8 @@
       <c r="E177" t="s">
         <v>12</v>
       </c>
-      <c r="F177" t="str" cm="1">
-        <f t="array" ref="F177">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-25 00:00:00</v>
+      <c r="F177" s="1">
+        <v>45468</v>
       </c>
       <c r="G177" t="str" cm="1">
         <f t="array" ref="G177">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10718,9 +10553,8 @@
       <c r="E178" t="s">
         <v>15</v>
       </c>
-      <c r="F178" t="str" cm="1">
-        <f t="array" ref="F178">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-26 00:00:00</v>
+      <c r="F178" s="1">
+        <v>45469</v>
       </c>
       <c r="G178" t="str" cm="1">
         <f t="array" ref="G178">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10751,9 +10585,8 @@
       <c r="E179" t="s">
         <v>9</v>
       </c>
-      <c r="F179" t="str" cm="1">
-        <f t="array" ref="F179">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-27 00:00:00</v>
+      <c r="F179" s="1">
+        <v>45470</v>
       </c>
       <c r="G179" t="str" cm="1">
         <f t="array" ref="G179">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10784,9 +10617,8 @@
       <c r="E180" t="s">
         <v>12</v>
       </c>
-      <c r="F180" t="str" cm="1">
-        <f t="array" ref="F180">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-28 00:00:00</v>
+      <c r="F180" s="1">
+        <v>45471</v>
       </c>
       <c r="G180" t="str" cm="1">
         <f t="array" ref="G180">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10817,9 +10649,8 @@
       <c r="E181" t="s">
         <v>15</v>
       </c>
-      <c r="F181" t="str" cm="1">
-        <f t="array" ref="F181">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-29 00:00:00</v>
+      <c r="F181" s="1">
+        <v>45472</v>
       </c>
       <c r="G181" t="str" cm="1">
         <f t="array" ref="G181">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10850,9 +10681,8 @@
       <c r="E182" t="s">
         <v>9</v>
       </c>
-      <c r="F182" t="str" cm="1">
-        <f t="array" ref="F182">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-06-30 00:00:00</v>
+      <c r="F182" s="1">
+        <v>45473</v>
       </c>
       <c r="G182" t="str" cm="1">
         <f t="array" ref="G182">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10883,9 +10713,8 @@
       <c r="E183" t="s">
         <v>12</v>
       </c>
-      <c r="F183" t="str" cm="1">
-        <f t="array" ref="F183">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-01 00:00:00</v>
+      <c r="F183" s="1">
+        <v>45474</v>
       </c>
       <c r="G183" t="str" cm="1">
         <f t="array" ref="G183">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10916,9 +10745,8 @@
       <c r="E184" t="s">
         <v>15</v>
       </c>
-      <c r="F184" t="str" cm="1">
-        <f t="array" ref="F184">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-02 00:00:00</v>
+      <c r="F184" s="1">
+        <v>45475</v>
       </c>
       <c r="G184" t="str" cm="1">
         <f t="array" ref="G184">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10949,9 +10777,8 @@
       <c r="E185" t="s">
         <v>9</v>
       </c>
-      <c r="F185" t="str" cm="1">
-        <f t="array" ref="F185">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-03 00:00:00</v>
+      <c r="F185" s="1">
+        <v>45476</v>
       </c>
       <c r="G185" t="str" cm="1">
         <f t="array" ref="G185">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -10982,9 +10809,8 @@
       <c r="E186" t="s">
         <v>12</v>
       </c>
-      <c r="F186" t="str" cm="1">
-        <f t="array" ref="F186">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-04 00:00:00</v>
+      <c r="F186" s="1">
+        <v>45477</v>
       </c>
       <c r="G186" t="str" cm="1">
         <f t="array" ref="G186">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11015,9 +10841,8 @@
       <c r="E187" t="s">
         <v>15</v>
       </c>
-      <c r="F187" t="str" cm="1">
-        <f t="array" ref="F187">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-05 00:00:00</v>
+      <c r="F187" s="1">
+        <v>45478</v>
       </c>
       <c r="G187" t="str" cm="1">
         <f t="array" ref="G187">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11048,9 +10873,8 @@
       <c r="E188" t="s">
         <v>9</v>
       </c>
-      <c r="F188" t="str" cm="1">
-        <f t="array" ref="F188">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-06 00:00:00</v>
+      <c r="F188" s="1">
+        <v>45479</v>
       </c>
       <c r="G188" t="str" cm="1">
         <f t="array" ref="G188">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11081,9 +10905,8 @@
       <c r="E189" t="s">
         <v>12</v>
       </c>
-      <c r="F189" t="str" cm="1">
-        <f t="array" ref="F189">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-07 00:00:00</v>
+      <c r="F189" s="1">
+        <v>45480</v>
       </c>
       <c r="G189" t="str" cm="1">
         <f t="array" ref="G189">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11114,9 +10937,8 @@
       <c r="E190" t="s">
         <v>15</v>
       </c>
-      <c r="F190" t="str" cm="1">
-        <f t="array" ref="F190">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-08 00:00:00</v>
+      <c r="F190" s="1">
+        <v>45481</v>
       </c>
       <c r="G190" t="str" cm="1">
         <f t="array" ref="G190">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11147,9 +10969,8 @@
       <c r="E191" t="s">
         <v>9</v>
       </c>
-      <c r="F191" t="str" cm="1">
-        <f t="array" ref="F191">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-09 00:00:00</v>
+      <c r="F191" s="1">
+        <v>45482</v>
       </c>
       <c r="G191" t="str" cm="1">
         <f t="array" ref="G191">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11180,9 +11001,8 @@
       <c r="E192" t="s">
         <v>12</v>
       </c>
-      <c r="F192" t="str" cm="1">
-        <f t="array" ref="F192">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-10 00:00:00</v>
+      <c r="F192" s="1">
+        <v>45483</v>
       </c>
       <c r="G192" t="str" cm="1">
         <f t="array" ref="G192">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11213,9 +11033,8 @@
       <c r="E193" t="s">
         <v>15</v>
       </c>
-      <c r="F193" t="str" cm="1">
-        <f t="array" ref="F193">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-11 00:00:00</v>
+      <c r="F193" s="1">
+        <v>45484</v>
       </c>
       <c r="G193" t="str" cm="1">
         <f t="array" ref="G193">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11246,9 +11065,8 @@
       <c r="E194" t="s">
         <v>9</v>
       </c>
-      <c r="F194" t="str" cm="1">
-        <f t="array" ref="F194">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-12 00:00:00</v>
+      <c r="F194" s="1">
+        <v>45485</v>
       </c>
       <c r="G194" t="str" cm="1">
         <f t="array" ref="G194">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11279,9 +11097,8 @@
       <c r="E195" t="s">
         <v>12</v>
       </c>
-      <c r="F195" t="str" cm="1">
-        <f t="array" ref="F195">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-13 00:00:00</v>
+      <c r="F195" s="1">
+        <v>45486</v>
       </c>
       <c r="G195" t="str" cm="1">
         <f t="array" ref="G195">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11312,9 +11129,8 @@
       <c r="E196" t="s">
         <v>15</v>
       </c>
-      <c r="F196" t="str" cm="1">
-        <f t="array" ref="F196">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-14 00:00:00</v>
+      <c r="F196" s="1">
+        <v>45487</v>
       </c>
       <c r="G196" t="str" cm="1">
         <f t="array" ref="G196">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11345,9 +11161,8 @@
       <c r="E197" t="s">
         <v>9</v>
       </c>
-      <c r="F197" t="str" cm="1">
-        <f t="array" ref="F197">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-15 00:00:00</v>
+      <c r="F197" s="1">
+        <v>45488</v>
       </c>
       <c r="G197" t="str" cm="1">
         <f t="array" ref="G197">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11378,9 +11193,8 @@
       <c r="E198" t="s">
         <v>12</v>
       </c>
-      <c r="F198" t="str" cm="1">
-        <f t="array" ref="F198">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-16 00:00:00</v>
+      <c r="F198" s="1">
+        <v>45489</v>
       </c>
       <c r="G198" t="str" cm="1">
         <f t="array" ref="G198">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11411,9 +11225,8 @@
       <c r="E199" t="s">
         <v>15</v>
       </c>
-      <c r="F199" t="str" cm="1">
-        <f t="array" ref="F199">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-17 00:00:00</v>
+      <c r="F199" s="1">
+        <v>45490</v>
       </c>
       <c r="G199" t="str" cm="1">
         <f t="array" ref="G199">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11444,9 +11257,8 @@
       <c r="E200" t="s">
         <v>9</v>
       </c>
-      <c r="F200" t="str" cm="1">
-        <f t="array" ref="F200">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-18 00:00:00</v>
+      <c r="F200" s="1">
+        <v>45491</v>
       </c>
       <c r="G200" t="str" cm="1">
         <f t="array" ref="G200">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11477,9 +11289,8 @@
       <c r="E201" t="s">
         <v>12</v>
       </c>
-      <c r="F201" t="str" cm="1">
-        <f t="array" ref="F201">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-19 00:00:00</v>
+      <c r="F201" s="1">
+        <v>45492</v>
       </c>
       <c r="G201" t="str" cm="1">
         <f t="array" ref="G201">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11510,9 +11321,8 @@
       <c r="E202" t="s">
         <v>15</v>
       </c>
-      <c r="F202" t="str" cm="1">
-        <f t="array" ref="F202">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-20 00:00:00</v>
+      <c r="F202" s="1">
+        <v>45493</v>
       </c>
       <c r="G202" t="str" cm="1">
         <f t="array" ref="G202">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11543,9 +11353,8 @@
       <c r="E203" t="s">
         <v>9</v>
       </c>
-      <c r="F203" t="str" cm="1">
-        <f t="array" ref="F203">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-21 00:00:00</v>
+      <c r="F203" s="1">
+        <v>45494</v>
       </c>
       <c r="G203" t="str" cm="1">
         <f t="array" ref="G203">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11576,9 +11385,8 @@
       <c r="E204" t="s">
         <v>12</v>
       </c>
-      <c r="F204" t="str" cm="1">
-        <f t="array" ref="F204">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-22 00:00:00</v>
+      <c r="F204" s="1">
+        <v>45495</v>
       </c>
       <c r="G204" t="str" cm="1">
         <f t="array" ref="G204">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11609,9 +11417,8 @@
       <c r="E205" t="s">
         <v>15</v>
       </c>
-      <c r="F205" t="str" cm="1">
-        <f t="array" ref="F205">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-23 00:00:00</v>
+      <c r="F205" s="1">
+        <v>45496</v>
       </c>
       <c r="G205" t="str" cm="1">
         <f t="array" ref="G205">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11642,9 +11449,8 @@
       <c r="E206" t="s">
         <v>9</v>
       </c>
-      <c r="F206" t="str" cm="1">
-        <f t="array" ref="F206">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-24 00:00:00</v>
+      <c r="F206" s="1">
+        <v>45497</v>
       </c>
       <c r="G206" t="str" cm="1">
         <f t="array" ref="G206">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11675,9 +11481,8 @@
       <c r="E207" t="s">
         <v>12</v>
       </c>
-      <c r="F207" t="str" cm="1">
-        <f t="array" ref="F207">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-25 00:00:00</v>
+      <c r="F207" s="1">
+        <v>45498</v>
       </c>
       <c r="G207" t="str" cm="1">
         <f t="array" ref="G207">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11708,9 +11513,8 @@
       <c r="E208" t="s">
         <v>15</v>
       </c>
-      <c r="F208" t="str" cm="1">
-        <f t="array" ref="F208">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-26 00:00:00</v>
+      <c r="F208" s="1">
+        <v>45499</v>
       </c>
       <c r="G208" t="str" cm="1">
         <f t="array" ref="G208">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11741,9 +11545,8 @@
       <c r="E209" t="s">
         <v>9</v>
       </c>
-      <c r="F209" t="str" cm="1">
-        <f t="array" ref="F209">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-27 00:00:00</v>
+      <c r="F209" s="1">
+        <v>45500</v>
       </c>
       <c r="G209" t="str" cm="1">
         <f t="array" ref="G209">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11774,9 +11577,8 @@
       <c r="E210" t="s">
         <v>12</v>
       </c>
-      <c r="F210" t="str" cm="1">
-        <f t="array" ref="F210">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-28 00:00:00</v>
+      <c r="F210" s="1">
+        <v>45501</v>
       </c>
       <c r="G210" t="str" cm="1">
         <f t="array" ref="G210">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11807,9 +11609,8 @@
       <c r="E211" t="s">
         <v>15</v>
       </c>
-      <c r="F211" t="str" cm="1">
-        <f t="array" ref="F211">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-29 00:00:00</v>
+      <c r="F211" s="1">
+        <v>45502</v>
       </c>
       <c r="G211" t="str" cm="1">
         <f t="array" ref="G211">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11840,9 +11641,8 @@
       <c r="E212" t="s">
         <v>9</v>
       </c>
-      <c r="F212" t="str" cm="1">
-        <f t="array" ref="F212">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-30 00:00:00</v>
+      <c r="F212" s="1">
+        <v>45503</v>
       </c>
       <c r="G212" t="str" cm="1">
         <f t="array" ref="G212">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11873,9 +11673,8 @@
       <c r="E213" t="s">
         <v>12</v>
       </c>
-      <c r="F213" t="str" cm="1">
-        <f t="array" ref="F213">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-07-31 00:00:00</v>
+      <c r="F213" s="1">
+        <v>45504</v>
       </c>
       <c r="G213" t="str" cm="1">
         <f t="array" ref="G213">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11906,9 +11705,8 @@
       <c r="E214" t="s">
         <v>15</v>
       </c>
-      <c r="F214" t="str" cm="1">
-        <f t="array" ref="F214">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-01 00:00:00</v>
+      <c r="F214" s="1">
+        <v>45505</v>
       </c>
       <c r="G214" t="str" cm="1">
         <f t="array" ref="G214">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11939,9 +11737,8 @@
       <c r="E215" t="s">
         <v>9</v>
       </c>
-      <c r="F215" t="str" cm="1">
-        <f t="array" ref="F215">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-02 00:00:00</v>
+      <c r="F215" s="1">
+        <v>45506</v>
       </c>
       <c r="G215" t="str" cm="1">
         <f t="array" ref="G215">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -11972,9 +11769,8 @@
       <c r="E216" t="s">
         <v>12</v>
       </c>
-      <c r="F216" t="str" cm="1">
-        <f t="array" ref="F216">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-03 00:00:00</v>
+      <c r="F216" s="1">
+        <v>45507</v>
       </c>
       <c r="G216" t="str" cm="1">
         <f t="array" ref="G216">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12005,9 +11801,8 @@
       <c r="E217" t="s">
         <v>15</v>
       </c>
-      <c r="F217" t="str" cm="1">
-        <f t="array" ref="F217">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-04 00:00:00</v>
+      <c r="F217" s="1">
+        <v>45508</v>
       </c>
       <c r="G217" t="str" cm="1">
         <f t="array" ref="G217">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12038,9 +11833,8 @@
       <c r="E218" t="s">
         <v>9</v>
       </c>
-      <c r="F218" t="str" cm="1">
-        <f t="array" ref="F218">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-05 00:00:00</v>
+      <c r="F218" s="1">
+        <v>45509</v>
       </c>
       <c r="G218" t="str" cm="1">
         <f t="array" ref="G218">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12071,9 +11865,8 @@
       <c r="E219" t="s">
         <v>12</v>
       </c>
-      <c r="F219" t="str" cm="1">
-        <f t="array" ref="F219">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-06 00:00:00</v>
+      <c r="F219" s="1">
+        <v>45510</v>
       </c>
       <c r="G219" t="str" cm="1">
         <f t="array" ref="G219">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12104,9 +11897,8 @@
       <c r="E220" t="s">
         <v>15</v>
       </c>
-      <c r="F220" t="str" cm="1">
-        <f t="array" ref="F220">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-07 00:00:00</v>
+      <c r="F220" s="1">
+        <v>45511</v>
       </c>
       <c r="G220" t="str" cm="1">
         <f t="array" ref="G220">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12137,9 +11929,8 @@
       <c r="E221" t="s">
         <v>9</v>
       </c>
-      <c r="F221" t="str" cm="1">
-        <f t="array" ref="F221">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-08 00:00:00</v>
+      <c r="F221" s="1">
+        <v>45512</v>
       </c>
       <c r="G221" t="str" cm="1">
         <f t="array" ref="G221">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12170,9 +11961,8 @@
       <c r="E222" t="s">
         <v>12</v>
       </c>
-      <c r="F222" t="str" cm="1">
-        <f t="array" ref="F222">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-09 00:00:00</v>
+      <c r="F222" s="1">
+        <v>45513</v>
       </c>
       <c r="G222" t="str" cm="1">
         <f t="array" ref="G222">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12203,9 +11993,8 @@
       <c r="E223" t="s">
         <v>15</v>
       </c>
-      <c r="F223" t="str" cm="1">
-        <f t="array" ref="F223">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-10 00:00:00</v>
+      <c r="F223" s="1">
+        <v>45514</v>
       </c>
       <c r="G223" t="str" cm="1">
         <f t="array" ref="G223">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12236,9 +12025,8 @@
       <c r="E224" t="s">
         <v>9</v>
       </c>
-      <c r="F224" t="str" cm="1">
-        <f t="array" ref="F224">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-11 00:00:00</v>
+      <c r="F224" s="1">
+        <v>45515</v>
       </c>
       <c r="G224" t="str" cm="1">
         <f t="array" ref="G224">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12269,9 +12057,8 @@
       <c r="E225" t="s">
         <v>12</v>
       </c>
-      <c r="F225" t="str" cm="1">
-        <f t="array" ref="F225">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-12 00:00:00</v>
+      <c r="F225" s="1">
+        <v>45516</v>
       </c>
       <c r="G225" t="str" cm="1">
         <f t="array" ref="G225">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12302,9 +12089,8 @@
       <c r="E226" t="s">
         <v>15</v>
       </c>
-      <c r="F226" t="str" cm="1">
-        <f t="array" ref="F226">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-13 00:00:00</v>
+      <c r="F226" s="1">
+        <v>45517</v>
       </c>
       <c r="G226" t="str" cm="1">
         <f t="array" ref="G226">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12335,9 +12121,8 @@
       <c r="E227" t="s">
         <v>9</v>
       </c>
-      <c r="F227" t="str" cm="1">
-        <f t="array" ref="F227">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-14 00:00:00</v>
+      <c r="F227" s="1">
+        <v>45518</v>
       </c>
       <c r="G227" t="str" cm="1">
         <f t="array" ref="G227">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12368,9 +12153,8 @@
       <c r="E228" t="s">
         <v>12</v>
       </c>
-      <c r="F228" t="str" cm="1">
-        <f t="array" ref="F228">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-15 00:00:00</v>
+      <c r="F228" s="1">
+        <v>45519</v>
       </c>
       <c r="G228" t="str" cm="1">
         <f t="array" ref="G228">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12401,9 +12185,8 @@
       <c r="E229" t="s">
         <v>15</v>
       </c>
-      <c r="F229" t="str" cm="1">
-        <f t="array" ref="F229">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-16 00:00:00</v>
+      <c r="F229" s="1">
+        <v>45520</v>
       </c>
       <c r="G229" t="str" cm="1">
         <f t="array" ref="G229">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12434,9 +12217,8 @@
       <c r="E230" t="s">
         <v>9</v>
       </c>
-      <c r="F230" t="str" cm="1">
-        <f t="array" ref="F230">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-17 00:00:00</v>
+      <c r="F230" s="1">
+        <v>45521</v>
       </c>
       <c r="G230" t="str" cm="1">
         <f t="array" ref="G230">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12467,9 +12249,8 @@
       <c r="E231" t="s">
         <v>12</v>
       </c>
-      <c r="F231" t="str" cm="1">
-        <f t="array" ref="F231">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-18 00:00:00</v>
+      <c r="F231" s="1">
+        <v>45522</v>
       </c>
       <c r="G231" t="str" cm="1">
         <f t="array" ref="G231">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12500,9 +12281,8 @@
       <c r="E232" t="s">
         <v>15</v>
       </c>
-      <c r="F232" t="str" cm="1">
-        <f t="array" ref="F232">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-19 00:00:00</v>
+      <c r="F232" s="1">
+        <v>45523</v>
       </c>
       <c r="G232" t="str" cm="1">
         <f t="array" ref="G232">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12533,9 +12313,8 @@
       <c r="E233" t="s">
         <v>9</v>
       </c>
-      <c r="F233" t="str" cm="1">
-        <f t="array" ref="F233">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-20 00:00:00</v>
+      <c r="F233" s="1">
+        <v>45524</v>
       </c>
       <c r="G233" t="str" cm="1">
         <f t="array" ref="G233">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12566,9 +12345,8 @@
       <c r="E234" t="s">
         <v>12</v>
       </c>
-      <c r="F234" t="str" cm="1">
-        <f t="array" ref="F234">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-21 00:00:00</v>
+      <c r="F234" s="1">
+        <v>45525</v>
       </c>
       <c r="G234" t="str" cm="1">
         <f t="array" ref="G234">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12599,9 +12377,8 @@
       <c r="E235" t="s">
         <v>15</v>
       </c>
-      <c r="F235" t="str" cm="1">
-        <f t="array" ref="F235">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-22 00:00:00</v>
+      <c r="F235" s="1">
+        <v>45526</v>
       </c>
       <c r="G235" t="str" cm="1">
         <f t="array" ref="G235">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12632,9 +12409,8 @@
       <c r="E236" t="s">
         <v>9</v>
       </c>
-      <c r="F236" t="str" cm="1">
-        <f t="array" ref="F236">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-23 00:00:00</v>
+      <c r="F236" s="1">
+        <v>45527</v>
       </c>
       <c r="G236" t="str" cm="1">
         <f t="array" ref="G236">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12665,9 +12441,8 @@
       <c r="E237" t="s">
         <v>12</v>
       </c>
-      <c r="F237" t="str" cm="1">
-        <f t="array" ref="F237">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-24 00:00:00</v>
+      <c r="F237" s="1">
+        <v>45528</v>
       </c>
       <c r="G237" t="str" cm="1">
         <f t="array" ref="G237">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12698,9 +12473,8 @@
       <c r="E238" t="s">
         <v>15</v>
       </c>
-      <c r="F238" t="str" cm="1">
-        <f t="array" ref="F238">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-25 00:00:00</v>
+      <c r="F238" s="1">
+        <v>45529</v>
       </c>
       <c r="G238" t="str" cm="1">
         <f t="array" ref="G238">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12731,9 +12505,8 @@
       <c r="E239" t="s">
         <v>9</v>
       </c>
-      <c r="F239" t="str" cm="1">
-        <f t="array" ref="F239">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-26 00:00:00</v>
+      <c r="F239" s="1">
+        <v>45530</v>
       </c>
       <c r="G239" t="str" cm="1">
         <f t="array" ref="G239">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12764,9 +12537,8 @@
       <c r="E240" t="s">
         <v>12</v>
       </c>
-      <c r="F240" t="str" cm="1">
-        <f t="array" ref="F240">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-27 00:00:00</v>
+      <c r="F240" s="1">
+        <v>45531</v>
       </c>
       <c r="G240" t="str" cm="1">
         <f t="array" ref="G240">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12797,9 +12569,8 @@
       <c r="E241" t="s">
         <v>15</v>
       </c>
-      <c r="F241" t="str" cm="1">
-        <f t="array" ref="F241">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-28 00:00:00</v>
+      <c r="F241" s="1">
+        <v>45532</v>
       </c>
       <c r="G241" t="str" cm="1">
         <f t="array" ref="G241">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12830,9 +12601,8 @@
       <c r="E242" t="s">
         <v>9</v>
       </c>
-      <c r="F242" t="str" cm="1">
-        <f t="array" ref="F242">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-29 00:00:00</v>
+      <c r="F242" s="1">
+        <v>45533</v>
       </c>
       <c r="G242" t="str" cm="1">
         <f t="array" ref="G242">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12863,9 +12633,8 @@
       <c r="E243" t="s">
         <v>12</v>
       </c>
-      <c r="F243" t="str" cm="1">
-        <f t="array" ref="F243">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-30 00:00:00</v>
+      <c r="F243" s="1">
+        <v>45534</v>
       </c>
       <c r="G243" t="str" cm="1">
         <f t="array" ref="G243">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12896,9 +12665,8 @@
       <c r="E244" t="s">
         <v>15</v>
       </c>
-      <c r="F244" t="str" cm="1">
-        <f t="array" ref="F244">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-08-31 00:00:00</v>
+      <c r="F244" s="1">
+        <v>45535</v>
       </c>
       <c r="G244" t="str" cm="1">
         <f t="array" ref="G244">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12929,9 +12697,8 @@
       <c r="E245" t="s">
         <v>9</v>
       </c>
-      <c r="F245" t="str" cm="1">
-        <f t="array" ref="F245">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-01 00:00:00</v>
+      <c r="F245" s="1">
+        <v>45536</v>
       </c>
       <c r="G245" t="str" cm="1">
         <f t="array" ref="G245">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12962,9 +12729,8 @@
       <c r="E246" t="s">
         <v>12</v>
       </c>
-      <c r="F246" t="str" cm="1">
-        <f t="array" ref="F246">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-02 00:00:00</v>
+      <c r="F246" s="1">
+        <v>45537</v>
       </c>
       <c r="G246" t="str" cm="1">
         <f t="array" ref="G246">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -12995,9 +12761,8 @@
       <c r="E247" t="s">
         <v>15</v>
       </c>
-      <c r="F247" t="str" cm="1">
-        <f t="array" ref="F247">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-03 00:00:00</v>
+      <c r="F247" s="1">
+        <v>45538</v>
       </c>
       <c r="G247" t="str" cm="1">
         <f t="array" ref="G247">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13028,9 +12793,8 @@
       <c r="E248" t="s">
         <v>9</v>
       </c>
-      <c r="F248" t="str" cm="1">
-        <f t="array" ref="F248">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-04 00:00:00</v>
+      <c r="F248" s="1">
+        <v>45539</v>
       </c>
       <c r="G248" t="str" cm="1">
         <f t="array" ref="G248">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13061,9 +12825,8 @@
       <c r="E249" t="s">
         <v>12</v>
       </c>
-      <c r="F249" t="str" cm="1">
-        <f t="array" ref="F249">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-05 00:00:00</v>
+      <c r="F249" s="1">
+        <v>45540</v>
       </c>
       <c r="G249" t="str" cm="1">
         <f t="array" ref="G249">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13094,9 +12857,8 @@
       <c r="E250" t="s">
         <v>15</v>
       </c>
-      <c r="F250" t="str" cm="1">
-        <f t="array" ref="F250">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-06 00:00:00</v>
+      <c r="F250" s="1">
+        <v>45541</v>
       </c>
       <c r="G250" t="str" cm="1">
         <f t="array" ref="G250">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13127,9 +12889,8 @@
       <c r="E251" t="s">
         <v>9</v>
       </c>
-      <c r="F251" t="str" cm="1">
-        <f t="array" ref="F251">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-07 00:00:00</v>
+      <c r="F251" s="1">
+        <v>45542</v>
       </c>
       <c r="G251" t="str" cm="1">
         <f t="array" ref="G251">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13160,9 +12921,8 @@
       <c r="E252" t="s">
         <v>12</v>
       </c>
-      <c r="F252" t="str" cm="1">
-        <f t="array" ref="F252">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-08 00:00:00</v>
+      <c r="F252" s="1">
+        <v>45543</v>
       </c>
       <c r="G252" t="str" cm="1">
         <f t="array" ref="G252">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13193,9 +12953,8 @@
       <c r="E253" t="s">
         <v>15</v>
       </c>
-      <c r="F253" t="str" cm="1">
-        <f t="array" ref="F253">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-09 00:00:00</v>
+      <c r="F253" s="1">
+        <v>45544</v>
       </c>
       <c r="G253" t="str" cm="1">
         <f t="array" ref="G253">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13226,9 +12985,8 @@
       <c r="E254" t="s">
         <v>9</v>
       </c>
-      <c r="F254" t="str" cm="1">
-        <f t="array" ref="F254">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-10 00:00:00</v>
+      <c r="F254" s="1">
+        <v>45545</v>
       </c>
       <c r="G254" t="str" cm="1">
         <f t="array" ref="G254">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13259,9 +13017,8 @@
       <c r="E255" t="s">
         <v>12</v>
       </c>
-      <c r="F255" t="str" cm="1">
-        <f t="array" ref="F255">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-11 00:00:00</v>
+      <c r="F255" s="1">
+        <v>45546</v>
       </c>
       <c r="G255" t="str" cm="1">
         <f t="array" ref="G255">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13292,9 +13049,8 @@
       <c r="E256" t="s">
         <v>15</v>
       </c>
-      <c r="F256" t="str" cm="1">
-        <f t="array" ref="F256">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-12 00:00:00</v>
+      <c r="F256" s="1">
+        <v>45547</v>
       </c>
       <c r="G256" t="str" cm="1">
         <f t="array" ref="G256">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13325,9 +13081,8 @@
       <c r="E257" t="s">
         <v>9</v>
       </c>
-      <c r="F257" t="str" cm="1">
-        <f t="array" ref="F257">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-13 00:00:00</v>
+      <c r="F257" s="1">
+        <v>45548</v>
       </c>
       <c r="G257" t="str" cm="1">
         <f t="array" ref="G257">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13358,9 +13113,8 @@
       <c r="E258" t="s">
         <v>12</v>
       </c>
-      <c r="F258" t="str" cm="1">
-        <f t="array" ref="F258">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-14 00:00:00</v>
+      <c r="F258" s="1">
+        <v>45549</v>
       </c>
       <c r="G258" t="str" cm="1">
         <f t="array" ref="G258">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13391,9 +13145,8 @@
       <c r="E259" t="s">
         <v>15</v>
       </c>
-      <c r="F259" t="str" cm="1">
-        <f t="array" ref="F259">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-15 00:00:00</v>
+      <c r="F259" s="1">
+        <v>45550</v>
       </c>
       <c r="G259" t="str" cm="1">
         <f t="array" ref="G259">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13424,9 +13177,8 @@
       <c r="E260" t="s">
         <v>9</v>
       </c>
-      <c r="F260" t="str" cm="1">
-        <f t="array" ref="F260">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-16 00:00:00</v>
+      <c r="F260" s="1">
+        <v>45551</v>
       </c>
       <c r="G260" t="str" cm="1">
         <f t="array" ref="G260">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13457,9 +13209,8 @@
       <c r="E261" t="s">
         <v>12</v>
       </c>
-      <c r="F261" t="str" cm="1">
-        <f t="array" ref="F261">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-17 00:00:00</v>
+      <c r="F261" s="1">
+        <v>45552</v>
       </c>
       <c r="G261" t="str" cm="1">
         <f t="array" ref="G261">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13490,9 +13241,8 @@
       <c r="E262" t="s">
         <v>15</v>
       </c>
-      <c r="F262" t="str" cm="1">
-        <f t="array" ref="F262">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-18 00:00:00</v>
+      <c r="F262" s="1">
+        <v>45553</v>
       </c>
       <c r="G262" t="str" cm="1">
         <f t="array" ref="G262">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13523,9 +13273,8 @@
       <c r="E263" t="s">
         <v>9</v>
       </c>
-      <c r="F263" t="str" cm="1">
-        <f t="array" ref="F263">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-19 00:00:00</v>
+      <c r="F263" s="1">
+        <v>45554</v>
       </c>
       <c r="G263" t="str" cm="1">
         <f t="array" ref="G263">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13556,9 +13305,8 @@
       <c r="E264" t="s">
         <v>12</v>
       </c>
-      <c r="F264" t="str" cm="1">
-        <f t="array" ref="F264">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-20 00:00:00</v>
+      <c r="F264" s="1">
+        <v>45555</v>
       </c>
       <c r="G264" t="str" cm="1">
         <f t="array" ref="G264">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13589,9 +13337,8 @@
       <c r="E265" t="s">
         <v>15</v>
       </c>
-      <c r="F265" t="str" cm="1">
-        <f t="array" ref="F265">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-21 00:00:00</v>
+      <c r="F265" s="1">
+        <v>45556</v>
       </c>
       <c r="G265" t="str" cm="1">
         <f t="array" ref="G265">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13622,9 +13369,8 @@
       <c r="E266" t="s">
         <v>9</v>
       </c>
-      <c r="F266" t="str" cm="1">
-        <f t="array" ref="F266">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-22 00:00:00</v>
+      <c r="F266" s="1">
+        <v>45557</v>
       </c>
       <c r="G266" t="str" cm="1">
         <f t="array" ref="G266">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13655,9 +13401,8 @@
       <c r="E267" t="s">
         <v>12</v>
       </c>
-      <c r="F267" t="str" cm="1">
-        <f t="array" ref="F267">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-23 00:00:00</v>
+      <c r="F267" s="1">
+        <v>45558</v>
       </c>
       <c r="G267" t="str" cm="1">
         <f t="array" ref="G267">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13688,9 +13433,8 @@
       <c r="E268" t="s">
         <v>15</v>
       </c>
-      <c r="F268" t="str" cm="1">
-        <f t="array" ref="F268">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-24 00:00:00</v>
+      <c r="F268" s="1">
+        <v>45559</v>
       </c>
       <c r="G268" t="str" cm="1">
         <f t="array" ref="G268">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13721,9 +13465,8 @@
       <c r="E269" t="s">
         <v>9</v>
       </c>
-      <c r="F269" t="str" cm="1">
-        <f t="array" ref="F269">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-25 00:00:00</v>
+      <c r="F269" s="1">
+        <v>45560</v>
       </c>
       <c r="G269" t="str" cm="1">
         <f t="array" ref="G269">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13754,9 +13497,8 @@
       <c r="E270" t="s">
         <v>12</v>
       </c>
-      <c r="F270" t="str" cm="1">
-        <f t="array" ref="F270">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-26 00:00:00</v>
+      <c r="F270" s="1">
+        <v>45561</v>
       </c>
       <c r="G270" t="str" cm="1">
         <f t="array" ref="G270">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13787,9 +13529,8 @@
       <c r="E271" t="s">
         <v>15</v>
       </c>
-      <c r="F271" t="str" cm="1">
-        <f t="array" ref="F271">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-27 00:00:00</v>
+      <c r="F271" s="1">
+        <v>45562</v>
       </c>
       <c r="G271" t="str" cm="1">
         <f t="array" ref="G271">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13820,9 +13561,8 @@
       <c r="E272" t="s">
         <v>9</v>
       </c>
-      <c r="F272" t="str" cm="1">
-        <f t="array" ref="F272">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-28 00:00:00</v>
+      <c r="F272" s="1">
+        <v>45563</v>
       </c>
       <c r="G272" t="str" cm="1">
         <f t="array" ref="G272">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13853,9 +13593,8 @@
       <c r="E273" t="s">
         <v>12</v>
       </c>
-      <c r="F273" t="str" cm="1">
-        <f t="array" ref="F273">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-29 00:00:00</v>
+      <c r="F273" s="1">
+        <v>45564</v>
       </c>
       <c r="G273" t="str" cm="1">
         <f t="array" ref="G273">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13886,9 +13625,8 @@
       <c r="E274" t="s">
         <v>15</v>
       </c>
-      <c r="F274" t="str" cm="1">
-        <f t="array" ref="F274">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-09-30 00:00:00</v>
+      <c r="F274" s="1">
+        <v>45565</v>
       </c>
       <c r="G274" t="str" cm="1">
         <f t="array" ref="G274">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13919,9 +13657,8 @@
       <c r="E275" t="s">
         <v>9</v>
       </c>
-      <c r="F275" t="str" cm="1">
-        <f t="array" ref="F275">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-01 00:00:00</v>
+      <c r="F275" s="1">
+        <v>45566</v>
       </c>
       <c r="G275" t="str" cm="1">
         <f t="array" ref="G275">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13952,9 +13689,8 @@
       <c r="E276" t="s">
         <v>12</v>
       </c>
-      <c r="F276" t="str" cm="1">
-        <f t="array" ref="F276">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-02 00:00:00</v>
+      <c r="F276" s="1">
+        <v>45567</v>
       </c>
       <c r="G276" t="str" cm="1">
         <f t="array" ref="G276">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -13985,9 +13721,8 @@
       <c r="E277" t="s">
         <v>15</v>
       </c>
-      <c r="F277" t="str" cm="1">
-        <f t="array" ref="F277">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-03 00:00:00</v>
+      <c r="F277" s="1">
+        <v>45568</v>
       </c>
       <c r="G277" t="str" cm="1">
         <f t="array" ref="G277">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -14018,9 +13753,8 @@
       <c r="E278" t="s">
         <v>9</v>
       </c>
-      <c r="F278" t="str" cm="1">
-        <f t="array" ref="F278">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-04 00:00:00</v>
+      <c r="F278" s="1">
+        <v>45569</v>
       </c>
       <c r="G278" t="str" cm="1">
         <f t="array" ref="G278">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -14051,9 +13785,8 @@
       <c r="E279" t="s">
         <v>12</v>
       </c>
-      <c r="F279" t="str" cm="1">
-        <f t="array" ref="F279">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-05 00:00:00</v>
+      <c r="F279" s="1">
+        <v>45570</v>
       </c>
       <c r="G279" t="str" cm="1">
         <f t="array" ref="G279">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -14084,9 +13817,8 @@
       <c r="E280" t="s">
         <v>15</v>
       </c>
-      <c r="F280" t="str" cm="1">
-        <f t="array" ref="F280">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-06 00:00:00</v>
+      <c r="F280" s="1">
+        <v>45571</v>
       </c>
       <c r="G280" t="str" cm="1">
         <f t="array" ref="G280">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -14117,9 +13849,8 @@
       <c r="E281" t="s">
         <v>9</v>
       </c>
-      <c r="F281" t="str" cm="1">
-        <f t="array" ref="F281">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-07 00:00:00</v>
+      <c r="F281" s="1">
+        <v>45572</v>
       </c>
       <c r="G281" t="str" cm="1">
         <f t="array" ref="G281">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -14150,9 +13881,8 @@
       <c r="E282" t="s">
         <v>12</v>
       </c>
-      <c r="F282" t="str" cm="1">
-        <f t="array" ref="F282">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-08 00:00:00</v>
+      <c r="F282" s="1">
+        <v>45573</v>
       </c>
       <c r="G282" t="str" cm="1">
         <f t="array" ref="G282">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -14183,9 +13913,8 @@
       <c r="E283" t="s">
         <v>15</v>
       </c>
-      <c r="F283" t="str" cm="1">
-        <f t="array" ref="F283">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-09 00:00:00</v>
+      <c r="F283" s="1">
+        <v>45574</v>
       </c>
       <c r="G283" t="str" cm="1">
         <f t="array" ref="G283">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -14216,9 +13945,8 @@
       <c r="E284" t="s">
         <v>9</v>
       </c>
-      <c r="F284" t="str" cm="1">
-        <f t="array" ref="F284">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-10 00:00:00</v>
+      <c r="F284" s="1">
+        <v>45575</v>
       </c>
       <c r="G284" t="str" cm="1">
         <f t="array" ref="G284">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -14249,9 +13977,8 @@
       <c r="E285" t="s">
         <v>12</v>
       </c>
-      <c r="F285" t="str" cm="1">
-        <f t="array" ref="F285">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-11 00:00:00</v>
+      <c r="F285" s="1">
+        <v>45576</v>
       </c>
       <c r="G285" t="str" cm="1">
         <f t="array" ref="G285">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -14282,9 +14009,8 @@
       <c r="E286" t="s">
         <v>15</v>
       </c>
-      <c r="F286" t="str" cm="1">
-        <f t="array" ref="F286">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-12 00:00:00</v>
+      <c r="F286" s="1">
+        <v>45577</v>
       </c>
       <c r="G286" t="str" cm="1">
         <f t="array" ref="G286">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -14300,8 +14026,8 @@
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F287" t="s">
-        <v>1148</v>
+      <c r="F287" s="1">
+        <v>45578</v>
       </c>
       <c r="G287" t="str" cm="1">
         <f t="array" ref="G287">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -14332,9 +14058,8 @@
       <c r="E288" t="s">
         <v>12</v>
       </c>
-      <c r="F288" t="str" cm="1">
-        <f t="array" ref="F288">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-14 00:00:00</v>
+      <c r="F288" s="1">
+        <v>45579</v>
       </c>
       <c r="G288" t="str" cm="1">
         <f t="array" ref="G288">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -14365,9 +14090,8 @@
       <c r="E289" t="s">
         <v>15</v>
       </c>
-      <c r="F289" t="str" cm="1">
-        <f t="array" ref="F289">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-15 00:00:00</v>
+      <c r="F289" s="1">
+        <v>45580</v>
       </c>
       <c r="G289" t="str" cm="1">
         <f t="array" ref="G289">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -14383,8 +14107,8 @@
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F290" t="s">
-        <v>1160</v>
+      <c r="F290" s="1">
+        <v>45581</v>
       </c>
       <c r="G290" t="str" cm="1">
         <f t="array" ref="G290">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -14415,9 +14139,8 @@
       <c r="E291" t="s">
         <v>12</v>
       </c>
-      <c r="F291" t="str" cm="1">
-        <f t="array" ref="F291">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-17 00:00:00</v>
+      <c r="F291" s="1">
+        <v>45582</v>
       </c>
       <c r="G291" t="str" cm="1">
         <f t="array" ref="G291">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -14448,9 +14171,8 @@
       <c r="E292" t="s">
         <v>15</v>
       </c>
-      <c r="F292" t="str" cm="1">
-        <f t="array" ref="F292">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-18 00:00:00</v>
+      <c r="F292" s="1">
+        <v>45583</v>
       </c>
       <c r="G292" t="str" cm="1">
         <f t="array" ref="G292">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -14481,9 +14203,8 @@
       <c r="E293" t="s">
         <v>9</v>
       </c>
-      <c r="F293" t="str" cm="1">
-        <f t="array" ref="F293">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-19 00:00:00</v>
+      <c r="F293" s="1">
+        <v>45584</v>
       </c>
       <c r="G293" t="str" cm="1">
         <f t="array" ref="G293">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -14514,9 +14235,8 @@
       <c r="E294" t="s">
         <v>12</v>
       </c>
-      <c r="F294" t="str" cm="1">
-        <f t="array" ref="F294">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-20 00:00:00</v>
+      <c r="F294" s="1">
+        <v>45585</v>
       </c>
       <c r="G294" t="str" cm="1">
         <f t="array" ref="G294">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -14547,9 +14267,8 @@
       <c r="E295" t="s">
         <v>15</v>
       </c>
-      <c r="F295" t="str" cm="1">
-        <f t="array" ref="F295">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-21 00:00:00</v>
+      <c r="F295" s="1">
+        <v>45586</v>
       </c>
       <c r="G295" t="str" cm="1">
         <f t="array" ref="G295">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -14565,8 +14284,8 @@
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F296" t="s">
-        <v>1184</v>
+      <c r="F296" s="1">
+        <v>45587</v>
       </c>
       <c r="G296" t="str" cm="1">
         <f t="array" ref="G296">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -14597,9 +14316,8 @@
       <c r="E297" t="s">
         <v>12</v>
       </c>
-      <c r="F297" t="str" cm="1">
-        <f t="array" ref="F297">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-23 00:00:00</v>
+      <c r="F297" s="1">
+        <v>45588</v>
       </c>
       <c r="G297" t="str" cm="1">
         <f t="array" ref="G297">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -14630,9 +14348,8 @@
       <c r="E298" t="s">
         <v>15</v>
       </c>
-      <c r="F298" t="str" cm="1">
-        <f t="array" ref="F298">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-24 00:00:00</v>
+      <c r="F298" s="1">
+        <v>45589</v>
       </c>
       <c r="G298" t="str" cm="1">
         <f t="array" ref="G298">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -14663,9 +14380,8 @@
       <c r="E299" t="s">
         <v>9</v>
       </c>
-      <c r="F299" t="str" cm="1">
-        <f t="array" ref="F299">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-25 00:00:00</v>
+      <c r="F299" s="1">
+        <v>45590</v>
       </c>
       <c r="G299" t="str" cm="1">
         <f t="array" ref="G299">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -14696,9 +14412,8 @@
       <c r="E300" t="s">
         <v>12</v>
       </c>
-      <c r="F300" t="str" cm="1">
-        <f t="array" ref="F300">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-26 00:00:00</v>
+      <c r="F300" s="1">
+        <v>45591</v>
       </c>
       <c r="G300" t="str" cm="1">
         <f t="array" ref="G300">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -14729,9 +14444,8 @@
       <c r="E301" t="s">
         <v>15</v>
       </c>
-      <c r="F301" t="str" cm="1">
-        <f t="array" ref="F301">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-27 00:00:00</v>
+      <c r="F301" s="1">
+        <v>45592</v>
       </c>
       <c r="G301" t="str" cm="1">
         <f t="array" ref="G301">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -14762,9 +14476,8 @@
       <c r="E302" t="s">
         <v>9</v>
       </c>
-      <c r="F302" t="str" cm="1">
-        <f t="array" ref="F302">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-28 00:00:00</v>
+      <c r="F302" s="1">
+        <v>45593</v>
       </c>
       <c r="G302" t="str" cm="1">
         <f t="array" ref="G302">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -14795,9 +14508,8 @@
       <c r="E303" t="s">
         <v>12</v>
       </c>
-      <c r="F303" t="str" cm="1">
-        <f t="array" ref="F303">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-29 00:00:00</v>
+      <c r="F303" s="1">
+        <v>45594</v>
       </c>
       <c r="G303" t="str" cm="1">
         <f t="array" ref="G303">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -14828,9 +14540,8 @@
       <c r="E304" t="s">
         <v>15</v>
       </c>
-      <c r="F304" t="str" cm="1">
-        <f t="array" ref="F304">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-30 00:00:00</v>
+      <c r="F304" s="1">
+        <v>45595</v>
       </c>
       <c r="G304" t="str" cm="1">
         <f t="array" ref="G304">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -14861,9 +14572,8 @@
       <c r="E305" t="s">
         <v>9</v>
       </c>
-      <c r="F305" t="str" cm="1">
-        <f t="array" ref="F305">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-10-31 00:00:00</v>
+      <c r="F305" s="1">
+        <v>45596</v>
       </c>
       <c r="G305" t="str" cm="1">
         <f t="array" ref="G305">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -14894,9 +14604,8 @@
       <c r="E306" t="s">
         <v>12</v>
       </c>
-      <c r="F306" t="str" cm="1">
-        <f t="array" ref="F306">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-01 00:00:00</v>
+      <c r="F306" s="1">
+        <v>45597</v>
       </c>
       <c r="G306" t="str" cm="1">
         <f t="array" ref="G306">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -14927,9 +14636,8 @@
       <c r="E307" t="s">
         <v>15</v>
       </c>
-      <c r="F307" t="str" cm="1">
-        <f t="array" ref="F307">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-02 00:00:00</v>
+      <c r="F307" s="1">
+        <v>45598</v>
       </c>
       <c r="G307" t="str" cm="1">
         <f t="array" ref="G307">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -14960,9 +14668,8 @@
       <c r="E308" t="s">
         <v>9</v>
       </c>
-      <c r="F308" t="str" cm="1">
-        <f t="array" ref="F308">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-03 00:00:00</v>
+      <c r="F308" s="1">
+        <v>45599</v>
       </c>
       <c r="G308" t="str" cm="1">
         <f t="array" ref="G308">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -14993,9 +14700,8 @@
       <c r="E309" t="s">
         <v>12</v>
       </c>
-      <c r="F309" t="str" cm="1">
-        <f t="array" ref="F309">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-04 00:00:00</v>
+      <c r="F309" s="1">
+        <v>45600</v>
       </c>
       <c r="G309" t="str" cm="1">
         <f t="array" ref="G309">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -15026,9 +14732,8 @@
       <c r="E310" t="s">
         <v>15</v>
       </c>
-      <c r="F310" t="str" cm="1">
-        <f t="array" ref="F310">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-05 00:00:00</v>
+      <c r="F310" s="1">
+        <v>45601</v>
       </c>
       <c r="G310" t="str" cm="1">
         <f t="array" ref="G310">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -15059,9 +14764,8 @@
       <c r="E311" t="s">
         <v>9</v>
       </c>
-      <c r="F311" t="str" cm="1">
-        <f t="array" ref="F311">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-06 00:00:00</v>
+      <c r="F311" s="1">
+        <v>45602</v>
       </c>
       <c r="G311" t="str" cm="1">
         <f t="array" ref="G311">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -15092,9 +14796,8 @@
       <c r="E312" t="s">
         <v>12</v>
       </c>
-      <c r="F312" t="str" cm="1">
-        <f t="array" ref="F312">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-07 00:00:00</v>
+      <c r="F312" s="1">
+        <v>45603</v>
       </c>
       <c r="G312" t="str" cm="1">
         <f t="array" ref="G312">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -15125,9 +14828,8 @@
       <c r="E313" t="s">
         <v>15</v>
       </c>
-      <c r="F313" t="str" cm="1">
-        <f t="array" ref="F313">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-08 00:00:00</v>
+      <c r="F313" s="1">
+        <v>45604</v>
       </c>
       <c r="G313" t="str" cm="1">
         <f t="array" ref="G313">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -15158,9 +14860,8 @@
       <c r="E314" t="s">
         <v>9</v>
       </c>
-      <c r="F314" t="str" cm="1">
-        <f t="array" ref="F314">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-09 00:00:00</v>
+      <c r="F314" s="1">
+        <v>45605</v>
       </c>
       <c r="G314" t="str" cm="1">
         <f t="array" ref="G314">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -15191,9 +14892,8 @@
       <c r="E315" t="s">
         <v>12</v>
       </c>
-      <c r="F315" t="str" cm="1">
-        <f t="array" ref="F315">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-10 00:00:00</v>
+      <c r="F315" s="1">
+        <v>45606</v>
       </c>
       <c r="G315" t="str" cm="1">
         <f t="array" ref="G315">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -15224,9 +14924,8 @@
       <c r="E316" t="s">
         <v>15</v>
       </c>
-      <c r="F316" t="str" cm="1">
-        <f t="array" ref="F316">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-11 00:00:00</v>
+      <c r="F316" s="1">
+        <v>45607</v>
       </c>
       <c r="G316" t="str" cm="1">
         <f t="array" ref="G316">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -15257,9 +14956,8 @@
       <c r="E317" t="s">
         <v>9</v>
       </c>
-      <c r="F317" t="str" cm="1">
-        <f t="array" ref="F317">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-12 00:00:00</v>
+      <c r="F317" s="1">
+        <v>45608</v>
       </c>
       <c r="G317" t="str" cm="1">
         <f t="array" ref="G317">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -15290,9 +14988,8 @@
       <c r="E318" t="s">
         <v>12</v>
       </c>
-      <c r="F318" t="str" cm="1">
-        <f t="array" ref="F318">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-13 00:00:00</v>
+      <c r="F318" s="1">
+        <v>45609</v>
       </c>
       <c r="G318" t="str" cm="1">
         <f t="array" ref="G318">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -15323,9 +15020,8 @@
       <c r="E319" t="s">
         <v>15</v>
       </c>
-      <c r="F319" t="str" cm="1">
-        <f t="array" ref="F319">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-14 00:00:00</v>
+      <c r="F319" s="1">
+        <v>45610</v>
       </c>
       <c r="G319" t="str" cm="1">
         <f t="array" ref="G319">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -15356,9 +15052,8 @@
       <c r="E320" t="s">
         <v>9</v>
       </c>
-      <c r="F320" t="str" cm="1">
-        <f t="array" ref="F320">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-15 00:00:00</v>
+      <c r="F320" s="1">
+        <v>45611</v>
       </c>
       <c r="G320" t="str" cm="1">
         <f t="array" ref="G320">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -15389,9 +15084,8 @@
       <c r="E321" t="s">
         <v>12</v>
       </c>
-      <c r="F321" t="str" cm="1">
-        <f t="array" ref="F321">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-16 00:00:00</v>
+      <c r="F321" s="1">
+        <v>45612</v>
       </c>
       <c r="G321" t="str" cm="1">
         <f t="array" ref="G321">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -15422,9 +15116,8 @@
       <c r="E322" t="s">
         <v>15</v>
       </c>
-      <c r="F322" t="str" cm="1">
-        <f t="array" ref="F322">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-17 00:00:00</v>
+      <c r="F322" s="1">
+        <v>45613</v>
       </c>
       <c r="G322" t="str" cm="1">
         <f t="array" ref="G322">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -15455,9 +15148,8 @@
       <c r="E323" t="s">
         <v>9</v>
       </c>
-      <c r="F323" t="str" cm="1">
-        <f t="array" ref="F323">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-18 00:00:00</v>
+      <c r="F323" s="1">
+        <v>45614</v>
       </c>
       <c r="G323" t="str" cm="1">
         <f t="array" ref="G323">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -15488,9 +15180,8 @@
       <c r="E324" t="s">
         <v>12</v>
       </c>
-      <c r="F324" t="str" cm="1">
-        <f t="array" ref="F324">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-19 00:00:00</v>
+      <c r="F324" s="1">
+        <v>45615</v>
       </c>
       <c r="G324" t="str" cm="1">
         <f t="array" ref="G324">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -15521,9 +15212,8 @@
       <c r="E325" t="s">
         <v>15</v>
       </c>
-      <c r="F325" t="str" cm="1">
-        <f t="array" ref="F325">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-20 00:00:00</v>
+      <c r="F325" s="1">
+        <v>45616</v>
       </c>
       <c r="G325" t="str" cm="1">
         <f t="array" ref="G325">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -15554,9 +15244,8 @@
       <c r="E326" t="s">
         <v>9</v>
       </c>
-      <c r="F326" t="str" cm="1">
-        <f t="array" ref="F326">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-21 00:00:00</v>
+      <c r="F326" s="1">
+        <v>45617</v>
       </c>
       <c r="G326" t="str" cm="1">
         <f t="array" ref="G326">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -15587,9 +15276,8 @@
       <c r="E327" t="s">
         <v>12</v>
       </c>
-      <c r="F327" t="str" cm="1">
-        <f t="array" ref="F327">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-22 00:00:00</v>
+      <c r="F327" s="1">
+        <v>45618</v>
       </c>
       <c r="G327" t="str" cm="1">
         <f t="array" ref="G327">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -15620,9 +15308,8 @@
       <c r="E328" t="s">
         <v>15</v>
       </c>
-      <c r="F328" t="str" cm="1">
-        <f t="array" ref="F328">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-23 00:00:00</v>
+      <c r="F328" s="1">
+        <v>45619</v>
       </c>
       <c r="G328" t="str" cm="1">
         <f t="array" ref="G328">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -15653,9 +15340,8 @@
       <c r="E329" t="s">
         <v>9</v>
       </c>
-      <c r="F329" t="str" cm="1">
-        <f t="array" ref="F329">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-24 00:00:00</v>
+      <c r="F329" s="1">
+        <v>45620</v>
       </c>
       <c r="G329" t="str" cm="1">
         <f t="array" ref="G329">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -15686,9 +15372,8 @@
       <c r="E330" t="s">
         <v>12</v>
       </c>
-      <c r="F330" t="str" cm="1">
-        <f t="array" ref="F330">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-25 00:00:00</v>
+      <c r="F330" s="1">
+        <v>45621</v>
       </c>
       <c r="G330" t="str" cm="1">
         <f t="array" ref="G330">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -15719,9 +15404,8 @@
       <c r="E331" t="s">
         <v>15</v>
       </c>
-      <c r="F331" t="str" cm="1">
-        <f t="array" ref="F331">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-26 00:00:00</v>
+      <c r="F331" s="1">
+        <v>45622</v>
       </c>
       <c r="G331" t="str" cm="1">
         <f t="array" ref="G331">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -15752,9 +15436,8 @@
       <c r="E332" t="s">
         <v>9</v>
       </c>
-      <c r="F332" t="str" cm="1">
-        <f t="array" ref="F332">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-27 00:00:00</v>
+      <c r="F332" s="1">
+        <v>45623</v>
       </c>
       <c r="G332" t="str" cm="1">
         <f t="array" ref="G332">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -15785,9 +15468,8 @@
       <c r="E333" t="s">
         <v>12</v>
       </c>
-      <c r="F333" t="str" cm="1">
-        <f t="array" ref="F333">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-28 00:00:00</v>
+      <c r="F333" s="1">
+        <v>45624</v>
       </c>
       <c r="G333" t="str" cm="1">
         <f t="array" ref="G333">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -15818,9 +15500,8 @@
       <c r="E334" t="s">
         <v>15</v>
       </c>
-      <c r="F334" t="str" cm="1">
-        <f t="array" ref="F334">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-29 00:00:00</v>
+      <c r="F334" s="1">
+        <v>45625</v>
       </c>
       <c r="G334" t="str" cm="1">
         <f t="array" ref="G334">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -15851,9 +15532,8 @@
       <c r="E335" t="s">
         <v>9</v>
       </c>
-      <c r="F335" t="str" cm="1">
-        <f t="array" ref="F335">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-11-30 00:00:00</v>
+      <c r="F335" s="1">
+        <v>45626</v>
       </c>
       <c r="G335" t="str" cm="1">
         <f t="array" ref="G335">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -15884,9 +15564,8 @@
       <c r="E336" t="s">
         <v>12</v>
       </c>
-      <c r="F336" t="str" cm="1">
-        <f t="array" ref="F336">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-01 00:00:00</v>
+      <c r="F336" s="1">
+        <v>45627</v>
       </c>
       <c r="G336" t="str" cm="1">
         <f t="array" ref="G336">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -15917,9 +15596,8 @@
       <c r="E337" t="s">
         <v>15</v>
       </c>
-      <c r="F337" t="str" cm="1">
-        <f t="array" ref="F337">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-02 00:00:00</v>
+      <c r="F337" s="1">
+        <v>45628</v>
       </c>
       <c r="G337" t="str" cm="1">
         <f t="array" ref="G337">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -15950,9 +15628,8 @@
       <c r="E338" t="s">
         <v>9</v>
       </c>
-      <c r="F338" t="str" cm="1">
-        <f t="array" ref="F338">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-03 00:00:00</v>
+      <c r="F338" s="1">
+        <v>45629</v>
       </c>
       <c r="G338" t="str" cm="1">
         <f t="array" ref="G338">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -15983,9 +15660,8 @@
       <c r="E339" t="s">
         <v>12</v>
       </c>
-      <c r="F339" t="str" cm="1">
-        <f t="array" ref="F339">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-04 00:00:00</v>
+      <c r="F339" s="1">
+        <v>45630</v>
       </c>
       <c r="G339" t="str" cm="1">
         <f t="array" ref="G339">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -16016,9 +15692,8 @@
       <c r="E340" t="s">
         <v>15</v>
       </c>
-      <c r="F340" t="str" cm="1">
-        <f t="array" ref="F340">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-05 00:00:00</v>
+      <c r="F340" s="1">
+        <v>45631</v>
       </c>
       <c r="G340" t="str" cm="1">
         <f t="array" ref="G340">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -16049,9 +15724,8 @@
       <c r="E341" t="s">
         <v>9</v>
       </c>
-      <c r="F341" t="str" cm="1">
-        <f t="array" ref="F341">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-06 00:00:00</v>
+      <c r="F341" s="1">
+        <v>45632</v>
       </c>
       <c r="G341" t="str" cm="1">
         <f t="array" ref="G341">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -16082,9 +15756,8 @@
       <c r="E342" t="s">
         <v>12</v>
       </c>
-      <c r="F342" t="str" cm="1">
-        <f t="array" ref="F342">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-07 00:00:00</v>
+      <c r="F342" s="1">
+        <v>45633</v>
       </c>
       <c r="G342" t="str" cm="1">
         <f t="array" ref="G342">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -16115,9 +15788,8 @@
       <c r="E343" t="s">
         <v>15</v>
       </c>
-      <c r="F343" t="str" cm="1">
-        <f t="array" ref="F343">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-08 00:00:00</v>
+      <c r="F343" s="1">
+        <v>45634</v>
       </c>
       <c r="G343" t="str" cm="1">
         <f t="array" ref="G343">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -16148,9 +15820,8 @@
       <c r="E344" t="s">
         <v>9</v>
       </c>
-      <c r="F344" t="str" cm="1">
-        <f t="array" ref="F344">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-09 00:00:00</v>
+      <c r="F344" s="1">
+        <v>45635</v>
       </c>
       <c r="G344" t="str" cm="1">
         <f t="array" ref="G344">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -16181,9 +15852,8 @@
       <c r="E345" t="s">
         <v>12</v>
       </c>
-      <c r="F345" t="str" cm="1">
-        <f t="array" ref="F345">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-10 00:00:00</v>
+      <c r="F345" s="1">
+        <v>45636</v>
       </c>
       <c r="G345" t="str" cm="1">
         <f t="array" ref="G345">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -16214,9 +15884,8 @@
       <c r="E346" t="s">
         <v>15</v>
       </c>
-      <c r="F346" t="str" cm="1">
-        <f t="array" ref="F346">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-11 00:00:00</v>
+      <c r="F346" s="1">
+        <v>45637</v>
       </c>
       <c r="G346" t="str" cm="1">
         <f t="array" ref="G346">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -16247,9 +15916,8 @@
       <c r="E347" t="s">
         <v>9</v>
       </c>
-      <c r="F347" t="str" cm="1">
-        <f t="array" ref="F347">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-12 00:00:00</v>
+      <c r="F347" s="1">
+        <v>45638</v>
       </c>
       <c r="G347" t="str" cm="1">
         <f t="array" ref="G347">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -16280,9 +15948,8 @@
       <c r="E348" t="s">
         <v>12</v>
       </c>
-      <c r="F348" t="str" cm="1">
-        <f t="array" ref="F348">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-13 00:00:00</v>
+      <c r="F348" s="1">
+        <v>45639</v>
       </c>
       <c r="G348" t="str" cm="1">
         <f t="array" ref="G348">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -16313,9 +15980,8 @@
       <c r="E349" t="s">
         <v>15</v>
       </c>
-      <c r="F349" t="str" cm="1">
-        <f t="array" ref="F349">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-14 00:00:00</v>
+      <c r="F349" s="1">
+        <v>45640</v>
       </c>
       <c r="G349" t="str" cm="1">
         <f t="array" ref="G349">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -16346,9 +16012,8 @@
       <c r="E350" t="s">
         <v>9</v>
       </c>
-      <c r="F350" t="str" cm="1">
-        <f t="array" ref="F350">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-15 00:00:00</v>
+      <c r="F350" s="1">
+        <v>45641</v>
       </c>
       <c r="G350" t="str" cm="1">
         <f t="array" ref="G350">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -16379,9 +16044,8 @@
       <c r="E351" t="s">
         <v>12</v>
       </c>
-      <c r="F351" t="str" cm="1">
-        <f t="array" ref="F351">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-16 00:00:00</v>
+      <c r="F351" s="1">
+        <v>45642</v>
       </c>
       <c r="G351" t="str" cm="1">
         <f t="array" ref="G351">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -16412,9 +16076,8 @@
       <c r="E352" t="s">
         <v>15</v>
       </c>
-      <c r="F352" t="str" cm="1">
-        <f t="array" ref="F352">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-17 00:00:00</v>
+      <c r="F352" s="1">
+        <v>45643</v>
       </c>
       <c r="G352" t="str" cm="1">
         <f t="array" ref="G352">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -16445,9 +16108,8 @@
       <c r="E353" t="s">
         <v>9</v>
       </c>
-      <c r="F353" t="str" cm="1">
-        <f t="array" ref="F353">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-18 00:00:00</v>
+      <c r="F353" s="1">
+        <v>45644</v>
       </c>
       <c r="G353" t="str" cm="1">
         <f t="array" ref="G353">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -16478,9 +16140,8 @@
       <c r="E354" t="s">
         <v>12</v>
       </c>
-      <c r="F354" t="str" cm="1">
-        <f t="array" ref="F354">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-19 00:00:00</v>
+      <c r="F354" s="1">
+        <v>45645</v>
       </c>
       <c r="G354" t="str" cm="1">
         <f t="array" ref="G354">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -16511,9 +16172,8 @@
       <c r="E355" t="s">
         <v>15</v>
       </c>
-      <c r="F355" t="str" cm="1">
-        <f t="array" ref="F355">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-20 00:00:00</v>
+      <c r="F355" s="1">
+        <v>45646</v>
       </c>
       <c r="G355" t="str" cm="1">
         <f t="array" ref="G355">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -16544,9 +16204,8 @@
       <c r="E356" t="s">
         <v>9</v>
       </c>
-      <c r="F356" t="str" cm="1">
-        <f t="array" ref="F356">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-21 00:00:00</v>
+      <c r="F356" s="1">
+        <v>45647</v>
       </c>
       <c r="G356" t="str" cm="1">
         <f t="array" ref="G356">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -16577,9 +16236,8 @@
       <c r="E357" t="s">
         <v>12</v>
       </c>
-      <c r="F357" t="str" cm="1">
-        <f t="array" ref="F357">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-22 00:00:00</v>
+      <c r="F357" s="1">
+        <v>45648</v>
       </c>
       <c r="G357" t="str" cm="1">
         <f t="array" ref="G357">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -16610,9 +16268,8 @@
       <c r="E358" t="s">
         <v>15</v>
       </c>
-      <c r="F358" t="str" cm="1">
-        <f t="array" ref="F358">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-23 00:00:00</v>
+      <c r="F358" s="1">
+        <v>45649</v>
       </c>
       <c r="G358" t="str" cm="1">
         <f t="array" ref="G358">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -16643,9 +16300,8 @@
       <c r="E359" t="s">
         <v>9</v>
       </c>
-      <c r="F359" t="str" cm="1">
-        <f t="array" ref="F359">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-24 00:00:00</v>
+      <c r="F359" s="1">
+        <v>45650</v>
       </c>
       <c r="G359" t="str" cm="1">
         <f t="array" ref="G359">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -16676,9 +16332,8 @@
       <c r="E360" t="s">
         <v>12</v>
       </c>
-      <c r="F360" t="str" cm="1">
-        <f t="array" ref="F360">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-25 00:00:00</v>
+      <c r="F360" s="1">
+        <v>45651</v>
       </c>
       <c r="G360" t="str" cm="1">
         <f t="array" ref="G360">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -16709,9 +16364,8 @@
       <c r="E361" t="s">
         <v>15</v>
       </c>
-      <c r="F361" t="str" cm="1">
-        <f t="array" ref="F361">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-26 00:00:00</v>
+      <c r="F361" s="1">
+        <v>45652</v>
       </c>
       <c r="G361" t="str" cm="1">
         <f t="array" ref="G361">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -16742,9 +16396,8 @@
       <c r="E362" t="s">
         <v>9</v>
       </c>
-      <c r="F362" t="str" cm="1">
-        <f t="array" ref="F362">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-27 00:00:00</v>
+      <c r="F362" s="1">
+        <v>45653</v>
       </c>
       <c r="G362" t="str" cm="1">
         <f t="array" ref="G362">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -16775,9 +16428,8 @@
       <c r="E363" t="s">
         <v>12</v>
       </c>
-      <c r="F363" t="str" cm="1">
-        <f t="array" ref="F363">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-28 00:00:00</v>
+      <c r="F363" s="1">
+        <v>45654</v>
       </c>
       <c r="G363" t="str" cm="1">
         <f t="array" ref="G363">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -16808,9 +16460,8 @@
       <c r="E364" t="s">
         <v>15</v>
       </c>
-      <c r="F364" t="str" cm="1">
-        <f t="array" ref="F364">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-29 00:00:00</v>
+      <c r="F364" s="1">
+        <v>45655</v>
       </c>
       <c r="G364" t="str" cm="1">
         <f t="array" ref="G364">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -16841,9 +16492,8 @@
       <c r="E365" t="s">
         <v>9</v>
       </c>
-      <c r="F365" t="str" cm="1">
-        <f t="array" ref="F365">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-30 00:00:00</v>
+      <c r="F365" s="1">
+        <v>45656</v>
       </c>
       <c r="G365" t="str" cm="1">
         <f t="array" ref="G365">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -16874,9 +16524,8 @@
       <c r="E366" t="s">
         <v>12</v>
       </c>
-      <c r="F366" t="str" cm="1">
-        <f t="array" ref="F366">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2024-12-31 00:00:00</v>
+      <c r="F366" s="1">
+        <v>45657</v>
       </c>
       <c r="G366" t="str" cm="1">
         <f t="array" ref="G366">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
@@ -16907,9 +16556,8 @@
       <c r="E367" t="s">
         <v>15</v>
       </c>
-      <c r="F367" t="str" cm="1">
-        <f t="array" ref="F367">INDEX(B:B, (ROW()-ROW(B$2))*3 + 2)</f>
-        <v>2025-01-01 00:00:00</v>
+      <c r="F367" s="1">
+        <v>45658</v>
       </c>
       <c r="G367" t="str" cm="1">
         <f t="array" ref="G367">INDEX(D:D, (ROW()-ROW(D$2))*3 + 2)</f>
